--- a/test/support/start_cell_test_calculation_sheet.xlsx
+++ b/test/support/start_cell_test_calculation_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandbox\jake\fungus_toast\test\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2544D166-4875-40D5-B9E7-3A41863A9200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946C28E-4395-40EF-AC82-5312F50370E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{C6F7676B-7929-462B-A0BA-0C2172D2A12B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Start Cells" sheetId="1" r:id="rId1"/>
+    <sheet name="Example Grid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Number of Rows and Columns</t>
   </si>
@@ -49,13 +50,24 @@
   <si>
     <t>Margin</t>
   </si>
+  <si>
+    <t>grid_size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>'Start Cells'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -203,7 +216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>'Start Cells'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -496,7 +509,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$11</c:f>
+              <c:f>'Start Cells'!$D$7:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -520,7 +533,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$11</c:f>
+              <c:f>'Start Cells'!$E$7:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2454,4 +2467,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFBCDF-BDB8-4118-A431-5E627C147C36}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/support/start_cell_test_calculation_sheet.xlsx
+++ b/test/support/start_cell_test_calculation_sheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandbox\jake\fungus_toast\test\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946C28E-4395-40EF-AC82-5312F50370E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB4171-56EB-436B-B8D7-1CF8EC796A13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{C6F7676B-7929-462B-A0BA-0C2172D2A12B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="2" xr2:uid="{C6F7676B-7929-462B-A0BA-0C2172D2A12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Cells" sheetId="1" r:id="rId1"/>
     <sheet name="Example Grid" sheetId="2" r:id="rId2"/>
+    <sheet name="Example Aggregate Stats" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Number of Rows and Columns</t>
   </si>
@@ -53,12 +54,54 @@
   <si>
     <t>grid_size</t>
   </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>previous_player_id</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>Player 1 Live Cells</t>
+  </si>
+  <si>
+    <t>Player 1 Dead Cells</t>
+  </si>
+  <si>
+    <t>Player 1 Regenerated Cells</t>
+  </si>
+  <si>
+    <t>Player 2 Dead Cells</t>
+  </si>
+  <si>
+    <t>Player 2 Regenerated Cells</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Should not be possible. If the cell dies then the player id should move to previous player id</t>
+  </si>
+  <si>
+    <t>Should not be possible. If the cell is alive then the player_id should be set</t>
+  </si>
+  <si>
+    <t>Player 2 Live Cells</t>
+  </si>
+  <si>
+    <t>Should not be possible. If the cell is dead then there should be no player_id set</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +113,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2237,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9D3B51-EC0D-4E4A-AFD7-07FBE34F4866}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2575,4 +2626,304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EF9FD-CEE5-43A9-8C38-97298138A99A}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/support/start_cell_test_calculation_sheet.xlsx
+++ b/test/support/start_cell_test_calculation_sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandbox\jake\fungus_toast\test\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB4171-56EB-436B-B8D7-1CF8EC796A13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4CA67-3606-46B8-9632-10D7E752F532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="2" xr2:uid="{C6F7676B-7929-462B-A0BA-0C2172D2A12B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="1" xr2:uid="{C6F7676B-7929-462B-A0BA-0C2172D2A12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Cells" sheetId="1" r:id="rId1"/>
     <sheet name="Example Grid" sheetId="2" r:id="rId2"/>
     <sheet name="Example Aggregate Stats" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Number of Rows and Columns</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Margin</t>
-  </si>
-  <si>
-    <t>grid_size</t>
   </si>
   <si>
     <t>player_id</t>
@@ -101,16 +98,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +143,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2522,16 +2517,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFBCDF-BDB8-4118-A431-5E627C147C36}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2547,79 +2541,7588 @@
       <c r="E1">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
         <v>6</v>
       </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="M2">
+        <v>62</v>
+      </c>
+      <c r="N2">
+        <v>63</v>
+      </c>
+      <c r="O2">
+        <v>64</v>
+      </c>
+      <c r="P2">
+        <v>65</v>
+      </c>
+      <c r="Q2">
+        <v>66</v>
+      </c>
+      <c r="R2">
+        <v>67</v>
+      </c>
+      <c r="S2">
+        <v>68</v>
+      </c>
+      <c r="T2">
+        <v>69</v>
+      </c>
+      <c r="U2">
+        <v>70</v>
+      </c>
+      <c r="V2">
+        <v>71</v>
+      </c>
+      <c r="W2">
+        <v>72</v>
+      </c>
+      <c r="X2">
+        <v>73</v>
+      </c>
+      <c r="Y2">
+        <v>74</v>
+      </c>
+      <c r="Z2">
+        <v>75</v>
+      </c>
+      <c r="AA2">
+        <v>76</v>
+      </c>
+      <c r="AB2">
+        <v>77</v>
+      </c>
+      <c r="AC2">
+        <v>78</v>
+      </c>
+      <c r="AD2">
+        <v>79</v>
+      </c>
+      <c r="AE2">
+        <v>80</v>
+      </c>
+      <c r="AF2">
+        <v>81</v>
+      </c>
+      <c r="AG2">
+        <v>82</v>
+      </c>
+      <c r="AH2">
+        <v>83</v>
+      </c>
+      <c r="AI2">
+        <v>84</v>
+      </c>
+      <c r="AJ2">
+        <v>85</v>
+      </c>
+      <c r="AK2">
+        <v>86</v>
+      </c>
+      <c r="AL2">
+        <v>87</v>
+      </c>
+      <c r="AM2">
+        <v>88</v>
+      </c>
+      <c r="AN2">
+        <v>89</v>
+      </c>
+      <c r="AO2">
+        <v>90</v>
+      </c>
+      <c r="AP2">
+        <v>91</v>
+      </c>
+      <c r="AQ2">
+        <v>92</v>
+      </c>
+      <c r="AR2">
+        <v>93</v>
+      </c>
+      <c r="AS2">
+        <v>94</v>
+      </c>
+      <c r="AT2">
+        <v>95</v>
+      </c>
+      <c r="AU2">
+        <v>96</v>
+      </c>
+      <c r="AV2">
+        <v>97</v>
+      </c>
+      <c r="AW2">
+        <v>98</v>
+      </c>
+      <c r="AX2">
+        <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>106</v>
+      </c>
+      <c r="H3">
+        <v>107</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
+      <c r="J3">
+        <v>109</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>111</v>
+      </c>
+      <c r="M3">
+        <v>112</v>
+      </c>
+      <c r="N3">
+        <v>113</v>
+      </c>
+      <c r="O3">
+        <v>114</v>
+      </c>
+      <c r="P3">
+        <v>115</v>
+      </c>
+      <c r="Q3">
+        <v>116</v>
+      </c>
+      <c r="R3">
+        <v>117</v>
+      </c>
+      <c r="S3">
+        <v>118</v>
+      </c>
+      <c r="T3">
+        <v>119</v>
+      </c>
+      <c r="U3">
+        <v>120</v>
+      </c>
+      <c r="V3">
+        <v>121</v>
+      </c>
+      <c r="W3">
+        <v>122</v>
+      </c>
+      <c r="X3">
+        <v>123</v>
+      </c>
+      <c r="Y3">
+        <v>124</v>
+      </c>
+      <c r="Z3">
+        <v>125</v>
+      </c>
+      <c r="AA3">
+        <v>126</v>
+      </c>
+      <c r="AB3">
+        <v>127</v>
+      </c>
+      <c r="AC3">
+        <v>128</v>
+      </c>
+      <c r="AD3">
+        <v>129</v>
+      </c>
+      <c r="AE3">
+        <v>130</v>
+      </c>
+      <c r="AF3">
+        <v>131</v>
+      </c>
+      <c r="AG3">
+        <v>132</v>
+      </c>
+      <c r="AH3">
+        <v>133</v>
+      </c>
+      <c r="AI3">
+        <v>134</v>
+      </c>
+      <c r="AJ3">
+        <v>135</v>
+      </c>
+      <c r="AK3">
+        <v>136</v>
+      </c>
+      <c r="AL3">
+        <v>137</v>
+      </c>
+      <c r="AM3">
+        <v>138</v>
+      </c>
+      <c r="AN3">
+        <v>139</v>
+      </c>
+      <c r="AO3">
+        <v>140</v>
+      </c>
+      <c r="AP3">
+        <v>141</v>
+      </c>
+      <c r="AQ3">
+        <v>142</v>
+      </c>
+      <c r="AR3">
+        <v>143</v>
+      </c>
+      <c r="AS3">
+        <v>144</v>
+      </c>
+      <c r="AT3">
+        <v>145</v>
+      </c>
+      <c r="AU3">
+        <v>146</v>
+      </c>
+      <c r="AV3">
+        <v>147</v>
+      </c>
+      <c r="AW3">
+        <v>148</v>
+      </c>
+      <c r="AX3">
+        <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>155</v>
+      </c>
+      <c r="G4">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>157</v>
+      </c>
+      <c r="I4">
+        <v>158</v>
+      </c>
+      <c r="J4">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>160</v>
+      </c>
+      <c r="L4">
+        <v>161</v>
+      </c>
+      <c r="M4">
+        <v>162</v>
+      </c>
+      <c r="N4">
+        <v>163</v>
+      </c>
+      <c r="O4">
+        <v>164</v>
+      </c>
+      <c r="P4">
+        <v>165</v>
+      </c>
+      <c r="Q4">
+        <v>166</v>
+      </c>
+      <c r="R4">
+        <v>167</v>
+      </c>
+      <c r="S4">
+        <v>168</v>
+      </c>
+      <c r="T4">
+        <v>169</v>
+      </c>
+      <c r="U4">
+        <v>170</v>
+      </c>
+      <c r="V4">
+        <v>171</v>
+      </c>
+      <c r="W4">
+        <v>172</v>
+      </c>
+      <c r="X4">
+        <v>173</v>
+      </c>
+      <c r="Y4">
+        <v>174</v>
+      </c>
+      <c r="Z4">
+        <v>175</v>
+      </c>
+      <c r="AA4">
+        <v>176</v>
+      </c>
+      <c r="AB4">
+        <v>177</v>
+      </c>
+      <c r="AC4">
+        <v>178</v>
+      </c>
+      <c r="AD4">
+        <v>179</v>
+      </c>
+      <c r="AE4">
+        <v>180</v>
+      </c>
+      <c r="AF4">
+        <v>181</v>
+      </c>
+      <c r="AG4">
+        <v>182</v>
+      </c>
+      <c r="AH4">
+        <v>183</v>
+      </c>
+      <c r="AI4">
+        <v>184</v>
+      </c>
+      <c r="AJ4">
+        <v>185</v>
+      </c>
+      <c r="AK4">
+        <v>186</v>
+      </c>
+      <c r="AL4">
+        <v>187</v>
+      </c>
+      <c r="AM4">
+        <v>188</v>
+      </c>
+      <c r="AN4">
+        <v>189</v>
+      </c>
+      <c r="AO4">
+        <v>190</v>
+      </c>
+      <c r="AP4">
+        <v>191</v>
+      </c>
+      <c r="AQ4">
+        <v>192</v>
+      </c>
+      <c r="AR4">
+        <v>193</v>
+      </c>
+      <c r="AS4">
+        <v>194</v>
+      </c>
+      <c r="AT4">
+        <v>195</v>
+      </c>
+      <c r="AU4">
+        <v>196</v>
+      </c>
+      <c r="AV4">
+        <v>197</v>
+      </c>
+      <c r="AW4">
+        <v>198</v>
+      </c>
+      <c r="AX4">
+        <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>204</v>
+      </c>
+      <c r="F5">
+        <v>205</v>
+      </c>
+      <c r="G5">
+        <v>206</v>
+      </c>
+      <c r="H5">
+        <v>207</v>
+      </c>
+      <c r="I5">
+        <v>208</v>
+      </c>
+      <c r="J5">
+        <v>209</v>
+      </c>
+      <c r="K5">
+        <v>210</v>
+      </c>
+      <c r="L5">
+        <v>211</v>
+      </c>
+      <c r="M5">
+        <v>212</v>
+      </c>
+      <c r="N5">
+        <v>213</v>
+      </c>
+      <c r="O5">
+        <v>214</v>
+      </c>
+      <c r="P5">
+        <v>215</v>
+      </c>
+      <c r="Q5">
+        <v>216</v>
+      </c>
+      <c r="R5">
+        <v>217</v>
+      </c>
+      <c r="S5">
+        <v>218</v>
+      </c>
+      <c r="T5">
+        <v>219</v>
+      </c>
+      <c r="U5">
+        <v>220</v>
+      </c>
+      <c r="V5">
+        <v>221</v>
+      </c>
+      <c r="W5">
+        <v>222</v>
+      </c>
+      <c r="X5">
+        <v>223</v>
+      </c>
+      <c r="Y5">
+        <v>224</v>
+      </c>
+      <c r="Z5">
+        <v>225</v>
+      </c>
+      <c r="AA5">
+        <v>226</v>
+      </c>
+      <c r="AB5">
+        <v>227</v>
+      </c>
+      <c r="AC5">
+        <v>228</v>
+      </c>
+      <c r="AD5">
+        <v>229</v>
+      </c>
+      <c r="AE5">
+        <v>230</v>
+      </c>
+      <c r="AF5">
+        <v>231</v>
+      </c>
+      <c r="AG5">
+        <v>232</v>
+      </c>
+      <c r="AH5">
+        <v>233</v>
+      </c>
+      <c r="AI5">
+        <v>234</v>
+      </c>
+      <c r="AJ5">
+        <v>235</v>
+      </c>
+      <c r="AK5">
+        <v>236</v>
+      </c>
+      <c r="AL5">
+        <v>237</v>
+      </c>
+      <c r="AM5">
+        <v>238</v>
+      </c>
+      <c r="AN5">
+        <v>239</v>
+      </c>
+      <c r="AO5">
+        <v>240</v>
+      </c>
+      <c r="AP5">
+        <v>241</v>
+      </c>
+      <c r="AQ5">
+        <v>242</v>
+      </c>
+      <c r="AR5">
+        <v>243</v>
+      </c>
+      <c r="AS5">
+        <v>244</v>
+      </c>
+      <c r="AT5">
+        <v>245</v>
+      </c>
+      <c r="AU5">
+        <v>246</v>
+      </c>
+      <c r="AV5">
+        <v>247</v>
+      </c>
+      <c r="AW5">
+        <v>248</v>
+      </c>
+      <c r="AX5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>251</v>
+      </c>
+      <c r="C6">
+        <v>252</v>
+      </c>
+      <c r="D6">
+        <v>253</v>
+      </c>
+      <c r="E6">
+        <v>254</v>
+      </c>
+      <c r="F6">
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>256</v>
+      </c>
+      <c r="H6">
+        <v>257</v>
+      </c>
+      <c r="I6">
+        <v>258</v>
+      </c>
+      <c r="J6">
+        <v>259</v>
+      </c>
+      <c r="K6">
+        <v>260</v>
+      </c>
+      <c r="L6">
+        <v>261</v>
+      </c>
+      <c r="M6">
+        <v>262</v>
+      </c>
+      <c r="N6">
+        <v>263</v>
+      </c>
+      <c r="O6">
+        <v>264</v>
+      </c>
+      <c r="P6">
+        <v>265</v>
+      </c>
+      <c r="Q6">
+        <v>266</v>
+      </c>
+      <c r="R6">
+        <v>267</v>
+      </c>
+      <c r="S6">
+        <v>268</v>
+      </c>
+      <c r="T6">
+        <v>269</v>
+      </c>
+      <c r="U6">
+        <v>270</v>
+      </c>
+      <c r="V6">
+        <v>271</v>
+      </c>
+      <c r="W6">
+        <v>272</v>
+      </c>
+      <c r="X6">
+        <v>273</v>
+      </c>
+      <c r="Y6">
+        <v>274</v>
+      </c>
+      <c r="Z6">
+        <v>275</v>
+      </c>
+      <c r="AA6">
+        <v>276</v>
+      </c>
+      <c r="AB6">
+        <v>277</v>
+      </c>
+      <c r="AC6">
+        <v>278</v>
+      </c>
+      <c r="AD6">
+        <v>279</v>
+      </c>
+      <c r="AE6">
+        <v>280</v>
+      </c>
+      <c r="AF6">
+        <v>281</v>
+      </c>
+      <c r="AG6">
+        <v>282</v>
+      </c>
+      <c r="AH6">
+        <v>283</v>
+      </c>
+      <c r="AI6">
+        <v>284</v>
+      </c>
+      <c r="AJ6">
+        <v>285</v>
+      </c>
+      <c r="AK6">
+        <v>286</v>
+      </c>
+      <c r="AL6">
+        <v>287</v>
+      </c>
+      <c r="AM6">
+        <v>288</v>
+      </c>
+      <c r="AN6">
+        <v>289</v>
+      </c>
+      <c r="AO6">
+        <v>290</v>
+      </c>
+      <c r="AP6">
+        <v>291</v>
+      </c>
+      <c r="AQ6">
+        <v>292</v>
+      </c>
+      <c r="AR6">
+        <v>293</v>
+      </c>
+      <c r="AS6">
+        <v>294</v>
+      </c>
+      <c r="AT6">
+        <v>295</v>
+      </c>
+      <c r="AU6">
+        <v>296</v>
+      </c>
+      <c r="AV6">
+        <v>297</v>
+      </c>
+      <c r="AW6">
+        <v>298</v>
+      </c>
+      <c r="AX6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>301</v>
+      </c>
+      <c r="C7">
+        <v>302</v>
+      </c>
+      <c r="D7">
+        <v>303</v>
+      </c>
+      <c r="E7">
+        <v>304</v>
+      </c>
+      <c r="F7">
+        <v>305</v>
+      </c>
+      <c r="G7">
+        <v>306</v>
+      </c>
+      <c r="H7">
+        <v>307</v>
+      </c>
+      <c r="I7">
+        <v>308</v>
+      </c>
+      <c r="J7">
+        <v>309</v>
+      </c>
+      <c r="K7">
+        <v>310</v>
+      </c>
+      <c r="L7">
+        <v>311</v>
+      </c>
+      <c r="M7">
+        <v>312</v>
+      </c>
+      <c r="N7">
+        <v>313</v>
+      </c>
+      <c r="O7">
+        <v>314</v>
+      </c>
+      <c r="P7">
+        <v>315</v>
+      </c>
+      <c r="Q7">
+        <v>316</v>
+      </c>
+      <c r="R7">
+        <v>317</v>
+      </c>
+      <c r="S7">
+        <v>318</v>
+      </c>
+      <c r="T7">
+        <v>319</v>
+      </c>
+      <c r="U7">
+        <v>320</v>
+      </c>
+      <c r="V7">
+        <v>321</v>
+      </c>
+      <c r="W7">
+        <v>322</v>
+      </c>
+      <c r="X7">
+        <v>323</v>
+      </c>
+      <c r="Y7">
+        <v>324</v>
+      </c>
+      <c r="Z7">
+        <v>325</v>
+      </c>
+      <c r="AA7">
+        <v>326</v>
+      </c>
+      <c r="AB7">
+        <v>327</v>
+      </c>
+      <c r="AC7">
+        <v>328</v>
+      </c>
+      <c r="AD7">
+        <v>329</v>
+      </c>
+      <c r="AE7">
+        <v>330</v>
+      </c>
+      <c r="AF7">
+        <v>331</v>
+      </c>
+      <c r="AG7">
+        <v>332</v>
+      </c>
+      <c r="AH7">
+        <v>333</v>
+      </c>
+      <c r="AI7">
+        <v>334</v>
+      </c>
+      <c r="AJ7">
+        <v>335</v>
+      </c>
+      <c r="AK7">
+        <v>336</v>
+      </c>
+      <c r="AL7">
+        <v>337</v>
+      </c>
+      <c r="AM7">
+        <v>338</v>
+      </c>
+      <c r="AN7">
+        <v>339</v>
+      </c>
+      <c r="AO7">
+        <v>340</v>
+      </c>
+      <c r="AP7">
+        <v>341</v>
+      </c>
+      <c r="AQ7">
+        <v>342</v>
+      </c>
+      <c r="AR7">
+        <v>343</v>
+      </c>
+      <c r="AS7">
+        <v>344</v>
+      </c>
+      <c r="AT7">
+        <v>345</v>
+      </c>
+      <c r="AU7">
+        <v>346</v>
+      </c>
+      <c r="AV7">
+        <v>347</v>
+      </c>
+      <c r="AW7">
+        <v>348</v>
+      </c>
+      <c r="AX7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>351</v>
+      </c>
+      <c r="C8">
+        <v>352</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8">
+        <v>354</v>
+      </c>
+      <c r="F8">
+        <v>355</v>
+      </c>
+      <c r="G8">
+        <v>356</v>
+      </c>
+      <c r="H8">
+        <v>357</v>
+      </c>
+      <c r="I8">
+        <v>358</v>
+      </c>
+      <c r="J8">
+        <v>359</v>
+      </c>
+      <c r="K8">
+        <v>360</v>
+      </c>
+      <c r="L8">
+        <v>361</v>
+      </c>
+      <c r="M8">
+        <v>362</v>
+      </c>
+      <c r="N8">
+        <v>363</v>
+      </c>
+      <c r="O8">
+        <v>364</v>
+      </c>
+      <c r="P8">
+        <v>365</v>
+      </c>
+      <c r="Q8">
+        <v>366</v>
+      </c>
+      <c r="R8">
+        <v>367</v>
+      </c>
+      <c r="S8">
+        <v>368</v>
+      </c>
+      <c r="T8">
+        <v>369</v>
+      </c>
+      <c r="U8">
+        <v>370</v>
+      </c>
+      <c r="V8">
+        <v>371</v>
+      </c>
+      <c r="W8">
+        <v>372</v>
+      </c>
+      <c r="X8">
+        <v>373</v>
+      </c>
+      <c r="Y8">
+        <v>374</v>
+      </c>
+      <c r="Z8">
+        <v>375</v>
+      </c>
+      <c r="AA8">
+        <v>376</v>
+      </c>
+      <c r="AB8">
+        <v>377</v>
+      </c>
+      <c r="AC8">
+        <v>378</v>
+      </c>
+      <c r="AD8">
+        <v>379</v>
+      </c>
+      <c r="AE8">
+        <v>380</v>
+      </c>
+      <c r="AF8">
+        <v>381</v>
+      </c>
+      <c r="AG8">
+        <v>382</v>
+      </c>
+      <c r="AH8">
+        <v>383</v>
+      </c>
+      <c r="AI8">
+        <v>384</v>
+      </c>
+      <c r="AJ8">
+        <v>385</v>
+      </c>
+      <c r="AK8">
+        <v>386</v>
+      </c>
+      <c r="AL8">
+        <v>387</v>
+      </c>
+      <c r="AM8">
+        <v>388</v>
+      </c>
+      <c r="AN8">
+        <v>389</v>
+      </c>
+      <c r="AO8">
+        <v>390</v>
+      </c>
+      <c r="AP8">
+        <v>391</v>
+      </c>
+      <c r="AQ8">
+        <v>392</v>
+      </c>
+      <c r="AR8">
+        <v>393</v>
+      </c>
+      <c r="AS8">
+        <v>394</v>
+      </c>
+      <c r="AT8">
+        <v>395</v>
+      </c>
+      <c r="AU8">
+        <v>396</v>
+      </c>
+      <c r="AV8">
+        <v>397</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>398</v>
+      </c>
+      <c r="AX8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>401</v>
+      </c>
+      <c r="C9">
+        <v>402</v>
+      </c>
+      <c r="D9">
+        <v>403</v>
+      </c>
+      <c r="E9">
+        <v>404</v>
+      </c>
+      <c r="F9">
+        <v>405</v>
+      </c>
+      <c r="G9">
+        <v>406</v>
+      </c>
+      <c r="H9">
+        <v>407</v>
+      </c>
+      <c r="I9">
+        <v>408</v>
+      </c>
+      <c r="J9">
+        <v>409</v>
+      </c>
+      <c r="K9">
+        <v>410</v>
+      </c>
+      <c r="L9">
+        <v>411</v>
+      </c>
+      <c r="M9">
+        <v>412</v>
+      </c>
+      <c r="N9">
+        <v>413</v>
+      </c>
+      <c r="O9">
+        <v>414</v>
+      </c>
+      <c r="P9">
+        <v>415</v>
+      </c>
+      <c r="Q9">
+        <v>416</v>
+      </c>
+      <c r="R9">
+        <v>417</v>
+      </c>
+      <c r="S9">
+        <v>418</v>
+      </c>
+      <c r="T9">
+        <v>419</v>
+      </c>
+      <c r="U9">
+        <v>420</v>
+      </c>
+      <c r="V9">
+        <v>421</v>
+      </c>
+      <c r="W9">
+        <v>422</v>
+      </c>
+      <c r="X9">
+        <v>423</v>
+      </c>
+      <c r="Y9">
+        <v>424</v>
+      </c>
+      <c r="Z9">
+        <v>425</v>
+      </c>
+      <c r="AA9">
+        <v>426</v>
+      </c>
+      <c r="AB9">
+        <v>427</v>
+      </c>
+      <c r="AC9">
+        <v>428</v>
+      </c>
+      <c r="AD9">
+        <v>429</v>
+      </c>
+      <c r="AE9">
+        <v>430</v>
+      </c>
+      <c r="AF9">
+        <v>431</v>
+      </c>
+      <c r="AG9">
+        <v>432</v>
+      </c>
+      <c r="AH9">
+        <v>433</v>
+      </c>
+      <c r="AI9">
+        <v>434</v>
+      </c>
+      <c r="AJ9">
+        <v>435</v>
+      </c>
+      <c r="AK9">
+        <v>436</v>
+      </c>
+      <c r="AL9">
+        <v>437</v>
+      </c>
+      <c r="AM9">
+        <v>438</v>
+      </c>
+      <c r="AN9">
+        <v>439</v>
+      </c>
+      <c r="AO9">
+        <v>440</v>
+      </c>
+      <c r="AP9">
+        <v>441</v>
+      </c>
+      <c r="AQ9">
+        <v>442</v>
+      </c>
+      <c r="AR9">
+        <v>443</v>
+      </c>
+      <c r="AS9">
+        <v>444</v>
+      </c>
+      <c r="AT9">
+        <v>445</v>
+      </c>
+      <c r="AU9">
+        <v>446</v>
+      </c>
+      <c r="AV9">
+        <v>447</v>
+      </c>
+      <c r="AW9">
+        <v>448</v>
+      </c>
+      <c r="AX9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>451</v>
+      </c>
+      <c r="C10">
+        <v>452</v>
+      </c>
+      <c r="D10">
+        <v>453</v>
+      </c>
+      <c r="E10">
+        <v>454</v>
+      </c>
+      <c r="F10">
+        <v>455</v>
+      </c>
+      <c r="G10">
+        <v>456</v>
+      </c>
+      <c r="H10">
+        <v>457</v>
+      </c>
+      <c r="I10">
+        <v>458</v>
+      </c>
+      <c r="J10">
+        <v>459</v>
+      </c>
+      <c r="K10">
+        <v>460</v>
+      </c>
+      <c r="L10">
+        <v>461</v>
+      </c>
+      <c r="M10">
+        <v>462</v>
+      </c>
+      <c r="N10">
+        <v>463</v>
+      </c>
+      <c r="O10">
+        <v>464</v>
+      </c>
+      <c r="P10">
+        <v>465</v>
+      </c>
+      <c r="Q10">
+        <v>466</v>
+      </c>
+      <c r="R10">
+        <v>467</v>
+      </c>
+      <c r="S10">
+        <v>468</v>
+      </c>
+      <c r="T10">
+        <v>469</v>
+      </c>
+      <c r="U10">
+        <v>470</v>
+      </c>
+      <c r="V10">
+        <v>471</v>
+      </c>
+      <c r="W10">
+        <v>472</v>
+      </c>
+      <c r="X10">
+        <v>473</v>
+      </c>
+      <c r="Y10">
+        <v>474</v>
+      </c>
+      <c r="Z10">
+        <v>475</v>
+      </c>
+      <c r="AA10">
+        <v>476</v>
+      </c>
+      <c r="AB10">
+        <v>477</v>
+      </c>
+      <c r="AC10">
+        <v>478</v>
+      </c>
+      <c r="AD10">
+        <v>479</v>
+      </c>
+      <c r="AE10">
+        <v>480</v>
+      </c>
+      <c r="AF10">
+        <v>481</v>
+      </c>
+      <c r="AG10">
+        <v>482</v>
+      </c>
+      <c r="AH10">
+        <v>483</v>
+      </c>
+      <c r="AI10">
+        <v>484</v>
+      </c>
+      <c r="AJ10">
+        <v>485</v>
+      </c>
+      <c r="AK10">
+        <v>486</v>
+      </c>
+      <c r="AL10">
+        <v>487</v>
+      </c>
+      <c r="AM10">
+        <v>488</v>
+      </c>
+      <c r="AN10">
+        <v>489</v>
+      </c>
+      <c r="AO10">
+        <v>490</v>
+      </c>
+      <c r="AP10">
+        <v>491</v>
+      </c>
+      <c r="AQ10">
+        <v>492</v>
+      </c>
+      <c r="AR10">
+        <v>493</v>
+      </c>
+      <c r="AS10">
+        <v>494</v>
+      </c>
+      <c r="AT10">
+        <v>495</v>
+      </c>
+      <c r="AU10">
+        <v>496</v>
+      </c>
+      <c r="AV10">
+        <v>497</v>
+      </c>
+      <c r="AW10">
+        <v>498</v>
+      </c>
+      <c r="AX10">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>501</v>
+      </c>
+      <c r="C11">
+        <v>502</v>
+      </c>
+      <c r="D11">
+        <v>503</v>
+      </c>
+      <c r="E11">
+        <v>504</v>
+      </c>
+      <c r="F11">
+        <v>505</v>
+      </c>
+      <c r="G11">
+        <v>506</v>
+      </c>
+      <c r="H11">
+        <v>507</v>
+      </c>
+      <c r="I11">
+        <v>508</v>
+      </c>
+      <c r="J11">
+        <v>509</v>
+      </c>
+      <c r="K11">
+        <v>510</v>
+      </c>
+      <c r="L11">
+        <v>511</v>
+      </c>
+      <c r="M11">
+        <v>512</v>
+      </c>
+      <c r="N11">
+        <v>513</v>
+      </c>
+      <c r="O11">
+        <v>514</v>
+      </c>
+      <c r="P11">
+        <v>515</v>
+      </c>
+      <c r="Q11">
+        <v>516</v>
+      </c>
+      <c r="R11">
+        <v>517</v>
+      </c>
+      <c r="S11">
+        <v>518</v>
+      </c>
+      <c r="T11">
+        <v>519</v>
+      </c>
+      <c r="U11">
+        <v>520</v>
+      </c>
+      <c r="V11">
+        <v>521</v>
+      </c>
+      <c r="W11">
+        <v>522</v>
+      </c>
+      <c r="X11">
+        <v>523</v>
+      </c>
+      <c r="Y11">
+        <v>524</v>
+      </c>
+      <c r="Z11">
+        <v>525</v>
+      </c>
+      <c r="AA11">
+        <v>526</v>
+      </c>
+      <c r="AB11">
+        <v>527</v>
+      </c>
+      <c r="AC11">
+        <v>528</v>
+      </c>
+      <c r="AD11">
+        <v>529</v>
+      </c>
+      <c r="AE11">
+        <v>530</v>
+      </c>
+      <c r="AF11">
+        <v>531</v>
+      </c>
+      <c r="AG11">
+        <v>532</v>
+      </c>
+      <c r="AH11">
+        <v>533</v>
+      </c>
+      <c r="AI11">
+        <v>534</v>
+      </c>
+      <c r="AJ11">
+        <v>535</v>
+      </c>
+      <c r="AK11">
+        <v>536</v>
+      </c>
+      <c r="AL11">
+        <v>537</v>
+      </c>
+      <c r="AM11">
+        <v>538</v>
+      </c>
+      <c r="AN11">
+        <v>539</v>
+      </c>
+      <c r="AO11">
+        <v>540</v>
+      </c>
+      <c r="AP11">
+        <v>541</v>
+      </c>
+      <c r="AQ11">
+        <v>542</v>
+      </c>
+      <c r="AR11">
+        <v>543</v>
+      </c>
+      <c r="AS11">
+        <v>544</v>
+      </c>
+      <c r="AT11">
+        <v>545</v>
+      </c>
+      <c r="AU11">
+        <v>546</v>
+      </c>
+      <c r="AV11">
+        <v>547</v>
+      </c>
+      <c r="AW11">
+        <v>548</v>
+      </c>
+      <c r="AX11">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="B12">
+        <v>551</v>
+      </c>
+      <c r="C12">
+        <v>552</v>
+      </c>
+      <c r="D12">
+        <v>553</v>
+      </c>
+      <c r="E12">
+        <v>554</v>
+      </c>
+      <c r="F12">
+        <v>555</v>
+      </c>
+      <c r="G12">
+        <v>556</v>
+      </c>
+      <c r="H12">
+        <v>557</v>
+      </c>
+      <c r="I12">
+        <v>558</v>
+      </c>
+      <c r="J12">
+        <v>559</v>
+      </c>
+      <c r="K12">
+        <v>560</v>
+      </c>
+      <c r="L12">
+        <v>561</v>
+      </c>
+      <c r="M12">
+        <v>562</v>
+      </c>
+      <c r="N12">
+        <v>563</v>
+      </c>
+      <c r="O12">
+        <v>564</v>
+      </c>
+      <c r="P12">
+        <v>565</v>
+      </c>
+      <c r="Q12">
+        <v>566</v>
+      </c>
+      <c r="R12">
+        <v>567</v>
+      </c>
+      <c r="S12">
+        <v>568</v>
+      </c>
+      <c r="T12">
+        <v>569</v>
+      </c>
+      <c r="U12">
+        <v>570</v>
+      </c>
+      <c r="V12">
+        <v>571</v>
+      </c>
+      <c r="W12">
+        <v>572</v>
+      </c>
+      <c r="X12">
+        <v>573</v>
+      </c>
+      <c r="Y12">
+        <v>574</v>
+      </c>
+      <c r="Z12">
+        <v>575</v>
+      </c>
+      <c r="AA12">
+        <v>576</v>
+      </c>
+      <c r="AB12">
+        <v>577</v>
+      </c>
+      <c r="AC12">
+        <v>578</v>
+      </c>
+      <c r="AD12">
+        <v>579</v>
+      </c>
+      <c r="AE12">
+        <v>580</v>
+      </c>
+      <c r="AF12">
+        <v>581</v>
+      </c>
+      <c r="AG12">
+        <v>582</v>
+      </c>
+      <c r="AH12">
+        <v>583</v>
+      </c>
+      <c r="AI12">
+        <v>584</v>
+      </c>
+      <c r="AJ12">
+        <v>585</v>
+      </c>
+      <c r="AK12">
+        <v>586</v>
+      </c>
+      <c r="AL12">
+        <v>587</v>
+      </c>
+      <c r="AM12">
+        <v>588</v>
+      </c>
+      <c r="AN12">
+        <v>589</v>
+      </c>
+      <c r="AO12">
+        <v>590</v>
+      </c>
+      <c r="AP12">
+        <v>591</v>
+      </c>
+      <c r="AQ12">
+        <v>592</v>
+      </c>
+      <c r="AR12">
+        <v>593</v>
+      </c>
+      <c r="AS12">
+        <v>594</v>
+      </c>
+      <c r="AT12">
+        <v>595</v>
+      </c>
+      <c r="AU12">
+        <v>596</v>
+      </c>
+      <c r="AV12">
+        <v>597</v>
+      </c>
+      <c r="AW12">
+        <v>598</v>
+      </c>
+      <c r="AX12">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>601</v>
+      </c>
+      <c r="C13">
+        <v>602</v>
+      </c>
+      <c r="D13">
+        <v>603</v>
+      </c>
+      <c r="E13">
+        <v>604</v>
+      </c>
+      <c r="F13">
+        <v>605</v>
+      </c>
+      <c r="G13">
+        <v>606</v>
+      </c>
+      <c r="H13">
+        <v>607</v>
+      </c>
+      <c r="I13">
+        <v>608</v>
+      </c>
+      <c r="J13">
+        <v>609</v>
+      </c>
+      <c r="K13">
+        <v>610</v>
+      </c>
+      <c r="L13">
+        <v>611</v>
+      </c>
+      <c r="M13">
+        <v>612</v>
+      </c>
+      <c r="N13">
+        <v>613</v>
+      </c>
+      <c r="O13">
+        <v>614</v>
+      </c>
+      <c r="P13">
+        <v>615</v>
+      </c>
+      <c r="Q13">
+        <v>616</v>
+      </c>
+      <c r="R13">
+        <v>617</v>
+      </c>
+      <c r="S13">
+        <v>618</v>
+      </c>
+      <c r="T13">
+        <v>619</v>
+      </c>
+      <c r="U13">
+        <v>620</v>
+      </c>
+      <c r="V13">
+        <v>621</v>
+      </c>
+      <c r="W13">
+        <v>622</v>
+      </c>
+      <c r="X13">
+        <v>623</v>
+      </c>
+      <c r="Y13">
+        <v>624</v>
+      </c>
+      <c r="Z13">
+        <v>625</v>
+      </c>
+      <c r="AA13">
+        <v>626</v>
+      </c>
+      <c r="AB13">
+        <v>627</v>
+      </c>
+      <c r="AC13">
+        <v>628</v>
+      </c>
+      <c r="AD13">
+        <v>629</v>
+      </c>
+      <c r="AE13">
+        <v>630</v>
+      </c>
+      <c r="AF13">
+        <v>631</v>
+      </c>
+      <c r="AG13">
+        <v>632</v>
+      </c>
+      <c r="AH13">
+        <v>633</v>
+      </c>
+      <c r="AI13">
+        <v>634</v>
+      </c>
+      <c r="AJ13">
+        <v>635</v>
+      </c>
+      <c r="AK13">
+        <v>636</v>
+      </c>
+      <c r="AL13">
+        <v>637</v>
+      </c>
+      <c r="AM13">
+        <v>638</v>
+      </c>
+      <c r="AN13">
+        <v>639</v>
+      </c>
+      <c r="AO13">
+        <v>640</v>
+      </c>
+      <c r="AP13">
+        <v>641</v>
+      </c>
+      <c r="AQ13">
+        <v>642</v>
+      </c>
+      <c r="AR13">
+        <v>643</v>
+      </c>
+      <c r="AS13">
+        <v>644</v>
+      </c>
+      <c r="AT13">
+        <v>645</v>
+      </c>
+      <c r="AU13">
+        <v>646</v>
+      </c>
+      <c r="AV13">
+        <v>647</v>
+      </c>
+      <c r="AW13">
+        <v>648</v>
+      </c>
+      <c r="AX13">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14">
+        <v>651</v>
+      </c>
+      <c r="C14">
+        <v>652</v>
+      </c>
+      <c r="D14">
+        <v>653</v>
+      </c>
+      <c r="E14">
+        <v>654</v>
+      </c>
+      <c r="F14">
+        <v>655</v>
+      </c>
+      <c r="G14">
+        <v>656</v>
+      </c>
+      <c r="H14">
+        <v>657</v>
+      </c>
+      <c r="I14">
+        <v>658</v>
+      </c>
+      <c r="J14">
+        <v>659</v>
+      </c>
+      <c r="K14">
+        <v>660</v>
+      </c>
+      <c r="L14">
+        <v>661</v>
+      </c>
+      <c r="M14">
+        <v>662</v>
+      </c>
+      <c r="N14">
+        <v>663</v>
+      </c>
+      <c r="O14">
+        <v>664</v>
+      </c>
+      <c r="P14">
+        <v>665</v>
+      </c>
+      <c r="Q14">
+        <v>666</v>
+      </c>
+      <c r="R14">
+        <v>667</v>
+      </c>
+      <c r="S14">
+        <v>668</v>
+      </c>
+      <c r="T14">
+        <v>669</v>
+      </c>
+      <c r="U14">
+        <v>670</v>
+      </c>
+      <c r="V14">
+        <v>671</v>
+      </c>
+      <c r="W14">
+        <v>672</v>
+      </c>
+      <c r="X14">
+        <v>673</v>
+      </c>
+      <c r="Y14">
+        <v>674</v>
+      </c>
+      <c r="Z14">
+        <v>675</v>
+      </c>
+      <c r="AA14">
+        <v>676</v>
+      </c>
+      <c r="AB14">
+        <v>677</v>
+      </c>
+      <c r="AC14">
+        <v>678</v>
+      </c>
+      <c r="AD14">
+        <v>679</v>
+      </c>
+      <c r="AE14">
+        <v>680</v>
+      </c>
+      <c r="AF14">
+        <v>681</v>
+      </c>
+      <c r="AG14">
+        <v>682</v>
+      </c>
+      <c r="AH14">
+        <v>683</v>
+      </c>
+      <c r="AI14">
+        <v>684</v>
+      </c>
+      <c r="AJ14">
+        <v>685</v>
+      </c>
+      <c r="AK14">
+        <v>686</v>
+      </c>
+      <c r="AL14">
+        <v>687</v>
+      </c>
+      <c r="AM14">
+        <v>688</v>
+      </c>
+      <c r="AN14">
+        <v>689</v>
+      </c>
+      <c r="AO14">
+        <v>690</v>
+      </c>
+      <c r="AP14">
+        <v>691</v>
+      </c>
+      <c r="AQ14">
+        <v>692</v>
+      </c>
+      <c r="AR14">
+        <v>693</v>
+      </c>
+      <c r="AS14">
+        <v>694</v>
+      </c>
+      <c r="AT14">
+        <v>695</v>
+      </c>
+      <c r="AU14">
+        <v>696</v>
+      </c>
+      <c r="AV14">
+        <v>697</v>
+      </c>
+      <c r="AW14">
+        <v>698</v>
+      </c>
+      <c r="AX14">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>701</v>
+      </c>
+      <c r="C15">
+        <v>702</v>
+      </c>
+      <c r="D15">
+        <v>703</v>
+      </c>
+      <c r="E15">
+        <v>704</v>
+      </c>
+      <c r="F15">
+        <v>705</v>
+      </c>
+      <c r="G15">
+        <v>706</v>
+      </c>
+      <c r="H15">
+        <v>707</v>
+      </c>
+      <c r="I15">
+        <v>708</v>
+      </c>
+      <c r="J15">
+        <v>709</v>
+      </c>
+      <c r="K15">
+        <v>710</v>
+      </c>
+      <c r="L15">
+        <v>711</v>
+      </c>
+      <c r="M15">
+        <v>712</v>
+      </c>
+      <c r="N15">
+        <v>713</v>
+      </c>
+      <c r="O15">
+        <v>714</v>
+      </c>
+      <c r="P15">
+        <v>715</v>
+      </c>
+      <c r="Q15">
+        <v>716</v>
+      </c>
+      <c r="R15">
+        <v>717</v>
+      </c>
+      <c r="S15">
+        <v>718</v>
+      </c>
+      <c r="T15">
+        <v>719</v>
+      </c>
+      <c r="U15">
+        <v>720</v>
+      </c>
+      <c r="V15">
+        <v>721</v>
+      </c>
+      <c r="W15">
+        <v>722</v>
+      </c>
+      <c r="X15">
+        <v>723</v>
+      </c>
+      <c r="Y15">
+        <v>724</v>
+      </c>
+      <c r="Z15">
+        <v>725</v>
+      </c>
+      <c r="AA15">
+        <v>726</v>
+      </c>
+      <c r="AB15">
+        <v>727</v>
+      </c>
+      <c r="AC15">
+        <v>728</v>
+      </c>
+      <c r="AD15">
+        <v>729</v>
+      </c>
+      <c r="AE15">
+        <v>730</v>
+      </c>
+      <c r="AF15">
+        <v>731</v>
+      </c>
+      <c r="AG15">
+        <v>732</v>
+      </c>
+      <c r="AH15">
+        <v>733</v>
+      </c>
+      <c r="AI15">
+        <v>734</v>
+      </c>
+      <c r="AJ15">
+        <v>735</v>
+      </c>
+      <c r="AK15">
+        <v>736</v>
+      </c>
+      <c r="AL15">
+        <v>737</v>
+      </c>
+      <c r="AM15">
+        <v>738</v>
+      </c>
+      <c r="AN15">
+        <v>739</v>
+      </c>
+      <c r="AO15">
+        <v>740</v>
+      </c>
+      <c r="AP15">
+        <v>741</v>
+      </c>
+      <c r="AQ15">
+        <v>742</v>
+      </c>
+      <c r="AR15">
+        <v>743</v>
+      </c>
+      <c r="AS15">
+        <v>744</v>
+      </c>
+      <c r="AT15">
+        <v>745</v>
+      </c>
+      <c r="AU15">
+        <v>746</v>
+      </c>
+      <c r="AV15">
+        <v>747</v>
+      </c>
+      <c r="AW15">
+        <v>748</v>
+      </c>
+      <c r="AX15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16">
+        <v>751</v>
+      </c>
+      <c r="C16">
+        <v>752</v>
+      </c>
+      <c r="D16">
+        <v>753</v>
+      </c>
+      <c r="E16">
+        <v>754</v>
+      </c>
+      <c r="F16">
+        <v>755</v>
+      </c>
+      <c r="G16">
+        <v>756</v>
+      </c>
+      <c r="H16">
+        <v>757</v>
+      </c>
+      <c r="I16">
+        <v>758</v>
+      </c>
+      <c r="J16">
+        <v>759</v>
+      </c>
+      <c r="K16">
+        <v>760</v>
+      </c>
+      <c r="L16">
+        <v>761</v>
+      </c>
+      <c r="M16">
+        <v>762</v>
+      </c>
+      <c r="N16">
+        <v>763</v>
+      </c>
+      <c r="O16">
+        <v>764</v>
+      </c>
+      <c r="P16">
+        <v>765</v>
+      </c>
+      <c r="Q16">
+        <v>766</v>
+      </c>
+      <c r="R16">
+        <v>767</v>
+      </c>
+      <c r="S16">
+        <v>768</v>
+      </c>
+      <c r="T16">
+        <v>769</v>
+      </c>
+      <c r="U16">
+        <v>770</v>
+      </c>
+      <c r="V16">
+        <v>771</v>
+      </c>
+      <c r="W16">
+        <v>772</v>
+      </c>
+      <c r="X16">
+        <v>773</v>
+      </c>
+      <c r="Y16">
+        <v>774</v>
+      </c>
+      <c r="Z16">
+        <v>775</v>
+      </c>
+      <c r="AA16">
+        <v>776</v>
+      </c>
+      <c r="AB16">
+        <v>777</v>
+      </c>
+      <c r="AC16">
+        <v>778</v>
+      </c>
+      <c r="AD16">
+        <v>779</v>
+      </c>
+      <c r="AE16">
+        <v>780</v>
+      </c>
+      <c r="AF16">
+        <v>781</v>
+      </c>
+      <c r="AG16">
+        <v>782</v>
+      </c>
+      <c r="AH16">
+        <v>783</v>
+      </c>
+      <c r="AI16">
+        <v>784</v>
+      </c>
+      <c r="AJ16">
+        <v>785</v>
+      </c>
+      <c r="AK16">
+        <v>786</v>
+      </c>
+      <c r="AL16">
+        <v>787</v>
+      </c>
+      <c r="AM16">
+        <v>788</v>
+      </c>
+      <c r="AN16">
+        <v>789</v>
+      </c>
+      <c r="AO16">
+        <v>790</v>
+      </c>
+      <c r="AP16">
+        <v>791</v>
+      </c>
+      <c r="AQ16">
+        <v>792</v>
+      </c>
+      <c r="AR16">
+        <v>793</v>
+      </c>
+      <c r="AS16">
+        <v>794</v>
+      </c>
+      <c r="AT16">
+        <v>795</v>
+      </c>
+      <c r="AU16">
+        <v>796</v>
+      </c>
+      <c r="AV16">
+        <v>797</v>
+      </c>
+      <c r="AW16">
+        <v>798</v>
+      </c>
+      <c r="AX16">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>801</v>
+      </c>
+      <c r="C17">
+        <v>802</v>
+      </c>
+      <c r="D17">
+        <v>803</v>
+      </c>
+      <c r="E17">
+        <v>804</v>
+      </c>
+      <c r="F17">
+        <v>805</v>
+      </c>
+      <c r="G17">
+        <v>806</v>
+      </c>
+      <c r="H17">
+        <v>807</v>
+      </c>
+      <c r="I17">
+        <v>808</v>
+      </c>
+      <c r="J17">
+        <v>809</v>
+      </c>
+      <c r="K17">
+        <v>810</v>
+      </c>
+      <c r="L17">
+        <v>811</v>
+      </c>
+      <c r="M17">
+        <v>812</v>
+      </c>
+      <c r="N17">
+        <v>813</v>
+      </c>
+      <c r="O17">
+        <v>814</v>
+      </c>
+      <c r="P17">
+        <v>815</v>
+      </c>
+      <c r="Q17">
+        <v>816</v>
+      </c>
+      <c r="R17">
+        <v>817</v>
+      </c>
+      <c r="S17">
+        <v>818</v>
+      </c>
+      <c r="T17">
+        <v>819</v>
+      </c>
+      <c r="U17">
+        <v>820</v>
+      </c>
+      <c r="V17">
+        <v>821</v>
+      </c>
+      <c r="W17">
+        <v>822</v>
+      </c>
+      <c r="X17">
+        <v>823</v>
+      </c>
+      <c r="Y17">
+        <v>824</v>
+      </c>
+      <c r="Z17">
+        <v>825</v>
+      </c>
+      <c r="AA17">
+        <v>826</v>
+      </c>
+      <c r="AB17">
+        <v>827</v>
+      </c>
+      <c r="AC17">
+        <v>828</v>
+      </c>
+      <c r="AD17">
+        <v>829</v>
+      </c>
+      <c r="AE17">
+        <v>830</v>
+      </c>
+      <c r="AF17">
+        <v>831</v>
+      </c>
+      <c r="AG17">
+        <v>832</v>
+      </c>
+      <c r="AH17">
+        <v>833</v>
+      </c>
+      <c r="AI17">
+        <v>834</v>
+      </c>
+      <c r="AJ17">
+        <v>835</v>
+      </c>
+      <c r="AK17">
+        <v>836</v>
+      </c>
+      <c r="AL17">
+        <v>837</v>
+      </c>
+      <c r="AM17">
+        <v>838</v>
+      </c>
+      <c r="AN17">
+        <v>839</v>
+      </c>
+      <c r="AO17">
+        <v>840</v>
+      </c>
+      <c r="AP17">
+        <v>841</v>
+      </c>
+      <c r="AQ17">
+        <v>842</v>
+      </c>
+      <c r="AR17">
+        <v>843</v>
+      </c>
+      <c r="AS17">
+        <v>844</v>
+      </c>
+      <c r="AT17">
+        <v>845</v>
+      </c>
+      <c r="AU17">
+        <v>846</v>
+      </c>
+      <c r="AV17">
+        <v>847</v>
+      </c>
+      <c r="AW17">
+        <v>848</v>
+      </c>
+      <c r="AX17">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>850</v>
+      </c>
+      <c r="B18">
+        <v>851</v>
+      </c>
+      <c r="C18">
+        <v>852</v>
+      </c>
+      <c r="D18">
+        <v>853</v>
+      </c>
+      <c r="E18">
+        <v>854</v>
+      </c>
+      <c r="F18">
+        <v>855</v>
+      </c>
+      <c r="G18">
+        <v>856</v>
+      </c>
+      <c r="H18">
+        <v>857</v>
+      </c>
+      <c r="I18">
+        <v>858</v>
+      </c>
+      <c r="J18">
+        <v>859</v>
+      </c>
+      <c r="K18">
+        <v>860</v>
+      </c>
+      <c r="L18">
+        <v>861</v>
+      </c>
+      <c r="M18">
+        <v>862</v>
+      </c>
+      <c r="N18">
+        <v>863</v>
+      </c>
+      <c r="O18">
+        <v>864</v>
+      </c>
+      <c r="P18">
+        <v>865</v>
+      </c>
+      <c r="Q18">
+        <v>866</v>
+      </c>
+      <c r="R18">
+        <v>867</v>
+      </c>
+      <c r="S18">
+        <v>868</v>
+      </c>
+      <c r="T18">
+        <v>869</v>
+      </c>
+      <c r="U18">
+        <v>870</v>
+      </c>
+      <c r="V18">
+        <v>871</v>
+      </c>
+      <c r="W18">
+        <v>872</v>
+      </c>
+      <c r="X18">
+        <v>873</v>
+      </c>
+      <c r="Y18">
+        <v>874</v>
+      </c>
+      <c r="Z18">
+        <v>875</v>
+      </c>
+      <c r="AA18">
+        <v>876</v>
+      </c>
+      <c r="AB18">
+        <v>877</v>
+      </c>
+      <c r="AC18">
+        <v>878</v>
+      </c>
+      <c r="AD18">
+        <v>879</v>
+      </c>
+      <c r="AE18">
+        <v>880</v>
+      </c>
+      <c r="AF18">
+        <v>881</v>
+      </c>
+      <c r="AG18">
+        <v>882</v>
+      </c>
+      <c r="AH18">
+        <v>883</v>
+      </c>
+      <c r="AI18">
+        <v>884</v>
+      </c>
+      <c r="AJ18">
+        <v>885</v>
+      </c>
+      <c r="AK18">
+        <v>886</v>
+      </c>
+      <c r="AL18">
+        <v>887</v>
+      </c>
+      <c r="AM18">
+        <v>888</v>
+      </c>
+      <c r="AN18">
+        <v>889</v>
+      </c>
+      <c r="AO18">
+        <v>890</v>
+      </c>
+      <c r="AP18">
+        <v>891</v>
+      </c>
+      <c r="AQ18">
+        <v>892</v>
+      </c>
+      <c r="AR18">
+        <v>893</v>
+      </c>
+      <c r="AS18">
+        <v>894</v>
+      </c>
+      <c r="AT18">
+        <v>895</v>
+      </c>
+      <c r="AU18">
+        <v>896</v>
+      </c>
+      <c r="AV18">
+        <v>897</v>
+      </c>
+      <c r="AW18">
+        <v>898</v>
+      </c>
+      <c r="AX18">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>901</v>
+      </c>
+      <c r="C19">
+        <v>902</v>
+      </c>
+      <c r="D19">
+        <v>903</v>
+      </c>
+      <c r="E19">
+        <v>904</v>
+      </c>
+      <c r="F19">
+        <v>905</v>
+      </c>
+      <c r="G19">
+        <v>906</v>
+      </c>
+      <c r="H19">
+        <v>907</v>
+      </c>
+      <c r="I19">
+        <v>908</v>
+      </c>
+      <c r="J19">
+        <v>909</v>
+      </c>
+      <c r="K19">
+        <v>910</v>
+      </c>
+      <c r="L19">
+        <v>911</v>
+      </c>
+      <c r="M19">
+        <v>912</v>
+      </c>
+      <c r="N19">
+        <v>913</v>
+      </c>
+      <c r="O19">
+        <v>914</v>
+      </c>
+      <c r="P19">
+        <v>915</v>
+      </c>
+      <c r="Q19">
+        <v>916</v>
+      </c>
+      <c r="R19">
+        <v>917</v>
+      </c>
+      <c r="S19">
+        <v>918</v>
+      </c>
+      <c r="T19">
+        <v>919</v>
+      </c>
+      <c r="U19">
+        <v>920</v>
+      </c>
+      <c r="V19">
+        <v>921</v>
+      </c>
+      <c r="W19">
+        <v>922</v>
+      </c>
+      <c r="X19">
+        <v>923</v>
+      </c>
+      <c r="Y19">
+        <v>924</v>
+      </c>
+      <c r="Z19">
+        <v>925</v>
+      </c>
+      <c r="AA19">
+        <v>926</v>
+      </c>
+      <c r="AB19">
+        <v>927</v>
+      </c>
+      <c r="AC19">
+        <v>928</v>
+      </c>
+      <c r="AD19">
+        <v>929</v>
+      </c>
+      <c r="AE19">
+        <v>930</v>
+      </c>
+      <c r="AF19">
+        <v>931</v>
+      </c>
+      <c r="AG19">
+        <v>932</v>
+      </c>
+      <c r="AH19">
+        <v>933</v>
+      </c>
+      <c r="AI19">
+        <v>934</v>
+      </c>
+      <c r="AJ19">
+        <v>935</v>
+      </c>
+      <c r="AK19">
+        <v>936</v>
+      </c>
+      <c r="AL19">
+        <v>937</v>
+      </c>
+      <c r="AM19">
+        <v>938</v>
+      </c>
+      <c r="AN19">
+        <v>939</v>
+      </c>
+      <c r="AO19">
+        <v>940</v>
+      </c>
+      <c r="AP19">
+        <v>941</v>
+      </c>
+      <c r="AQ19">
+        <v>942</v>
+      </c>
+      <c r="AR19">
+        <v>943</v>
+      </c>
+      <c r="AS19">
+        <v>944</v>
+      </c>
+      <c r="AT19">
+        <v>945</v>
+      </c>
+      <c r="AU19">
+        <v>946</v>
+      </c>
+      <c r="AV19">
+        <v>947</v>
+      </c>
+      <c r="AW19">
+        <v>948</v>
+      </c>
+      <c r="AX19">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>950</v>
+      </c>
+      <c r="B20">
+        <v>951</v>
+      </c>
+      <c r="C20">
+        <v>952</v>
+      </c>
+      <c r="D20">
+        <v>953</v>
+      </c>
+      <c r="E20">
+        <v>954</v>
+      </c>
+      <c r="F20">
+        <v>955</v>
+      </c>
+      <c r="G20">
+        <v>956</v>
+      </c>
+      <c r="H20">
+        <v>957</v>
+      </c>
+      <c r="I20">
+        <v>958</v>
+      </c>
+      <c r="J20">
+        <v>959</v>
+      </c>
+      <c r="K20">
+        <v>960</v>
+      </c>
+      <c r="L20">
+        <v>961</v>
+      </c>
+      <c r="M20">
+        <v>962</v>
+      </c>
+      <c r="N20">
+        <v>963</v>
+      </c>
+      <c r="O20">
+        <v>964</v>
+      </c>
+      <c r="P20">
+        <v>965</v>
+      </c>
+      <c r="Q20">
+        <v>966</v>
+      </c>
+      <c r="R20">
+        <v>967</v>
+      </c>
+      <c r="S20">
+        <v>968</v>
+      </c>
+      <c r="T20">
+        <v>969</v>
+      </c>
+      <c r="U20">
+        <v>970</v>
+      </c>
+      <c r="V20">
+        <v>971</v>
+      </c>
+      <c r="W20">
+        <v>972</v>
+      </c>
+      <c r="X20">
+        <v>973</v>
+      </c>
+      <c r="Y20">
+        <v>974</v>
+      </c>
+      <c r="Z20">
+        <v>975</v>
+      </c>
+      <c r="AA20">
+        <v>976</v>
+      </c>
+      <c r="AB20">
+        <v>977</v>
+      </c>
+      <c r="AC20">
+        <v>978</v>
+      </c>
+      <c r="AD20">
+        <v>979</v>
+      </c>
+      <c r="AE20">
+        <v>980</v>
+      </c>
+      <c r="AF20">
+        <v>981</v>
+      </c>
+      <c r="AG20">
+        <v>982</v>
+      </c>
+      <c r="AH20">
+        <v>983</v>
+      </c>
+      <c r="AI20">
+        <v>984</v>
+      </c>
+      <c r="AJ20">
+        <v>985</v>
+      </c>
+      <c r="AK20">
+        <v>986</v>
+      </c>
+      <c r="AL20">
+        <v>987</v>
+      </c>
+      <c r="AM20">
+        <v>988</v>
+      </c>
+      <c r="AN20">
+        <v>989</v>
+      </c>
+      <c r="AO20">
+        <v>990</v>
+      </c>
+      <c r="AP20">
+        <v>991</v>
+      </c>
+      <c r="AQ20">
+        <v>992</v>
+      </c>
+      <c r="AR20">
+        <v>993</v>
+      </c>
+      <c r="AS20">
+        <v>994</v>
+      </c>
+      <c r="AT20">
+        <v>995</v>
+      </c>
+      <c r="AU20">
+        <v>996</v>
+      </c>
+      <c r="AV20">
+        <v>997</v>
+      </c>
+      <c r="AW20">
+        <v>998</v>
+      </c>
+      <c r="AX20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>1001</v>
+      </c>
+      <c r="C21">
+        <v>1002</v>
+      </c>
+      <c r="D21">
+        <v>1003</v>
+      </c>
+      <c r="E21">
+        <v>1004</v>
+      </c>
+      <c r="F21">
+        <v>1005</v>
+      </c>
+      <c r="G21">
+        <v>1006</v>
+      </c>
+      <c r="H21">
+        <v>1007</v>
+      </c>
+      <c r="I21">
+        <v>1008</v>
+      </c>
+      <c r="J21">
+        <v>1009</v>
+      </c>
+      <c r="K21">
+        <v>1010</v>
+      </c>
+      <c r="L21">
+        <v>1011</v>
+      </c>
+      <c r="M21">
+        <v>1012</v>
+      </c>
+      <c r="N21">
+        <v>1013</v>
+      </c>
+      <c r="O21">
+        <v>1014</v>
+      </c>
+      <c r="P21">
+        <v>1015</v>
+      </c>
+      <c r="Q21">
+        <v>1016</v>
+      </c>
+      <c r="R21">
+        <v>1017</v>
+      </c>
+      <c r="S21">
+        <v>1018</v>
+      </c>
+      <c r="T21">
+        <v>1019</v>
+      </c>
+      <c r="U21">
+        <v>1020</v>
+      </c>
+      <c r="V21">
+        <v>1021</v>
+      </c>
+      <c r="W21">
+        <v>1022</v>
+      </c>
+      <c r="X21">
+        <v>1023</v>
+      </c>
+      <c r="Y21">
+        <v>1024</v>
+      </c>
+      <c r="Z21">
+        <v>1025</v>
+      </c>
+      <c r="AA21">
+        <v>1026</v>
+      </c>
+      <c r="AB21">
+        <v>1027</v>
+      </c>
+      <c r="AC21">
+        <v>1028</v>
+      </c>
+      <c r="AD21">
+        <v>1029</v>
+      </c>
+      <c r="AE21">
+        <v>1030</v>
+      </c>
+      <c r="AF21">
+        <v>1031</v>
+      </c>
+      <c r="AG21">
+        <v>1032</v>
+      </c>
+      <c r="AH21">
+        <v>1033</v>
+      </c>
+      <c r="AI21">
+        <v>1034</v>
+      </c>
+      <c r="AJ21">
+        <v>1035</v>
+      </c>
+      <c r="AK21">
+        <v>1036</v>
+      </c>
+      <c r="AL21">
+        <v>1037</v>
+      </c>
+      <c r="AM21">
+        <v>1038</v>
+      </c>
+      <c r="AN21">
+        <v>1039</v>
+      </c>
+      <c r="AO21">
+        <v>1040</v>
+      </c>
+      <c r="AP21">
+        <v>1041</v>
+      </c>
+      <c r="AQ21">
+        <v>1042</v>
+      </c>
+      <c r="AR21">
+        <v>1043</v>
+      </c>
+      <c r="AS21">
+        <v>1044</v>
+      </c>
+      <c r="AT21">
+        <v>1045</v>
+      </c>
+      <c r="AU21">
+        <v>1046</v>
+      </c>
+      <c r="AV21">
+        <v>1047</v>
+      </c>
+      <c r="AW21">
+        <v>1048</v>
+      </c>
+      <c r="AX21">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1050</v>
+      </c>
+      <c r="B22">
+        <v>1051</v>
+      </c>
+      <c r="C22">
+        <v>1052</v>
+      </c>
+      <c r="D22">
+        <v>1053</v>
+      </c>
+      <c r="E22">
+        <v>1054</v>
+      </c>
+      <c r="F22">
+        <v>1055</v>
+      </c>
+      <c r="G22">
+        <v>1056</v>
+      </c>
+      <c r="H22">
+        <v>1057</v>
+      </c>
+      <c r="I22">
+        <v>1058</v>
+      </c>
+      <c r="J22">
+        <v>1059</v>
+      </c>
+      <c r="K22">
+        <v>1060</v>
+      </c>
+      <c r="L22">
+        <v>1061</v>
+      </c>
+      <c r="M22">
+        <v>1062</v>
+      </c>
+      <c r="N22">
+        <v>1063</v>
+      </c>
+      <c r="O22">
+        <v>1064</v>
+      </c>
+      <c r="P22">
+        <v>1065</v>
+      </c>
+      <c r="Q22">
+        <v>1066</v>
+      </c>
+      <c r="R22">
+        <v>1067</v>
+      </c>
+      <c r="S22">
+        <v>1068</v>
+      </c>
+      <c r="T22">
+        <v>1069</v>
+      </c>
+      <c r="U22">
+        <v>1070</v>
+      </c>
+      <c r="V22">
+        <v>1071</v>
+      </c>
+      <c r="W22">
+        <v>1072</v>
+      </c>
+      <c r="X22">
+        <v>1073</v>
+      </c>
+      <c r="Y22">
+        <v>1074</v>
+      </c>
+      <c r="Z22">
+        <v>1075</v>
+      </c>
+      <c r="AA22">
+        <v>1076</v>
+      </c>
+      <c r="AB22">
+        <v>1077</v>
+      </c>
+      <c r="AC22">
+        <v>1078</v>
+      </c>
+      <c r="AD22">
+        <v>1079</v>
+      </c>
+      <c r="AE22">
+        <v>1080</v>
+      </c>
+      <c r="AF22">
+        <v>1081</v>
+      </c>
+      <c r="AG22">
+        <v>1082</v>
+      </c>
+      <c r="AH22">
+        <v>1083</v>
+      </c>
+      <c r="AI22">
+        <v>1084</v>
+      </c>
+      <c r="AJ22">
+        <v>1085</v>
+      </c>
+      <c r="AK22">
+        <v>1086</v>
+      </c>
+      <c r="AL22">
+        <v>1087</v>
+      </c>
+      <c r="AM22">
+        <v>1088</v>
+      </c>
+      <c r="AN22">
+        <v>1089</v>
+      </c>
+      <c r="AO22">
+        <v>1090</v>
+      </c>
+      <c r="AP22">
+        <v>1091</v>
+      </c>
+      <c r="AQ22">
+        <v>1092</v>
+      </c>
+      <c r="AR22">
+        <v>1093</v>
+      </c>
+      <c r="AS22">
+        <v>1094</v>
+      </c>
+      <c r="AT22">
+        <v>1095</v>
+      </c>
+      <c r="AU22">
+        <v>1096</v>
+      </c>
+      <c r="AV22">
+        <v>1097</v>
+      </c>
+      <c r="AW22">
+        <v>1098</v>
+      </c>
+      <c r="AX22">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1100</v>
+      </c>
+      <c r="B23">
+        <v>1101</v>
+      </c>
+      <c r="C23">
+        <v>1102</v>
+      </c>
+      <c r="D23">
+        <v>1103</v>
+      </c>
+      <c r="E23">
+        <v>1104</v>
+      </c>
+      <c r="F23">
+        <v>1105</v>
+      </c>
+      <c r="G23">
+        <v>1106</v>
+      </c>
+      <c r="H23">
+        <v>1107</v>
+      </c>
+      <c r="I23">
+        <v>1108</v>
+      </c>
+      <c r="J23">
+        <v>1109</v>
+      </c>
+      <c r="K23">
+        <v>1110</v>
+      </c>
+      <c r="L23">
+        <v>1111</v>
+      </c>
+      <c r="M23">
+        <v>1112</v>
+      </c>
+      <c r="N23">
+        <v>1113</v>
+      </c>
+      <c r="O23">
+        <v>1114</v>
+      </c>
+      <c r="P23">
+        <v>1115</v>
+      </c>
+      <c r="Q23">
+        <v>1116</v>
+      </c>
+      <c r="R23">
+        <v>1117</v>
+      </c>
+      <c r="S23">
+        <v>1118</v>
+      </c>
+      <c r="T23">
+        <v>1119</v>
+      </c>
+      <c r="U23">
+        <v>1120</v>
+      </c>
+      <c r="V23">
+        <v>1121</v>
+      </c>
+      <c r="W23">
+        <v>1122</v>
+      </c>
+      <c r="X23">
+        <v>1123</v>
+      </c>
+      <c r="Y23">
+        <v>1124</v>
+      </c>
+      <c r="Z23">
+        <v>1125</v>
+      </c>
+      <c r="AA23">
+        <v>1126</v>
+      </c>
+      <c r="AB23">
+        <v>1127</v>
+      </c>
+      <c r="AC23">
+        <v>1128</v>
+      </c>
+      <c r="AD23">
+        <v>1129</v>
+      </c>
+      <c r="AE23">
+        <v>1130</v>
+      </c>
+      <c r="AF23">
+        <v>1131</v>
+      </c>
+      <c r="AG23">
+        <v>1132</v>
+      </c>
+      <c r="AH23">
+        <v>1133</v>
+      </c>
+      <c r="AI23">
+        <v>1134</v>
+      </c>
+      <c r="AJ23">
+        <v>1135</v>
+      </c>
+      <c r="AK23">
+        <v>1136</v>
+      </c>
+      <c r="AL23">
+        <v>1137</v>
+      </c>
+      <c r="AM23">
+        <v>1138</v>
+      </c>
+      <c r="AN23">
+        <v>1139</v>
+      </c>
+      <c r="AO23">
+        <v>1140</v>
+      </c>
+      <c r="AP23">
+        <v>1141</v>
+      </c>
+      <c r="AQ23">
+        <v>1142</v>
+      </c>
+      <c r="AR23">
+        <v>1143</v>
+      </c>
+      <c r="AS23">
+        <v>1144</v>
+      </c>
+      <c r="AT23">
+        <v>1145</v>
+      </c>
+      <c r="AU23">
+        <v>1146</v>
+      </c>
+      <c r="AV23">
+        <v>1147</v>
+      </c>
+      <c r="AW23">
+        <v>1148</v>
+      </c>
+      <c r="AX23">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1150</v>
+      </c>
+      <c r="B24">
+        <v>1151</v>
+      </c>
+      <c r="C24">
+        <v>1152</v>
+      </c>
+      <c r="D24">
+        <v>1153</v>
+      </c>
+      <c r="E24">
+        <v>1154</v>
+      </c>
+      <c r="F24">
+        <v>1155</v>
+      </c>
+      <c r="G24">
+        <v>1156</v>
+      </c>
+      <c r="H24">
+        <v>1157</v>
+      </c>
+      <c r="I24">
+        <v>1158</v>
+      </c>
+      <c r="J24">
+        <v>1159</v>
+      </c>
+      <c r="K24">
+        <v>1160</v>
+      </c>
+      <c r="L24">
+        <v>1161</v>
+      </c>
+      <c r="M24">
+        <v>1162</v>
+      </c>
+      <c r="N24">
+        <v>1163</v>
+      </c>
+      <c r="O24">
+        <v>1164</v>
+      </c>
+      <c r="P24">
+        <v>1165</v>
+      </c>
+      <c r="Q24">
+        <v>1166</v>
+      </c>
+      <c r="R24">
+        <v>1167</v>
+      </c>
+      <c r="S24">
+        <v>1168</v>
+      </c>
+      <c r="T24">
+        <v>1169</v>
+      </c>
+      <c r="U24">
+        <v>1170</v>
+      </c>
+      <c r="V24">
+        <v>1171</v>
+      </c>
+      <c r="W24">
+        <v>1172</v>
+      </c>
+      <c r="X24">
+        <v>1173</v>
+      </c>
+      <c r="Y24">
+        <v>1174</v>
+      </c>
+      <c r="Z24">
+        <v>1175</v>
+      </c>
+      <c r="AA24">
+        <v>1176</v>
+      </c>
+      <c r="AB24">
+        <v>1177</v>
+      </c>
+      <c r="AC24">
+        <v>1178</v>
+      </c>
+      <c r="AD24">
+        <v>1179</v>
+      </c>
+      <c r="AE24">
+        <v>1180</v>
+      </c>
+      <c r="AF24">
+        <v>1181</v>
+      </c>
+      <c r="AG24">
+        <v>1182</v>
+      </c>
+      <c r="AH24">
+        <v>1183</v>
+      </c>
+      <c r="AI24">
+        <v>1184</v>
+      </c>
+      <c r="AJ24">
+        <v>1185</v>
+      </c>
+      <c r="AK24">
+        <v>1186</v>
+      </c>
+      <c r="AL24">
+        <v>1187</v>
+      </c>
+      <c r="AM24">
+        <v>1188</v>
+      </c>
+      <c r="AN24">
+        <v>1189</v>
+      </c>
+      <c r="AO24">
+        <v>1190</v>
+      </c>
+      <c r="AP24">
+        <v>1191</v>
+      </c>
+      <c r="AQ24">
+        <v>1192</v>
+      </c>
+      <c r="AR24">
+        <v>1193</v>
+      </c>
+      <c r="AS24">
+        <v>1194</v>
+      </c>
+      <c r="AT24">
+        <v>1195</v>
+      </c>
+      <c r="AU24">
+        <v>1196</v>
+      </c>
+      <c r="AV24">
+        <v>1197</v>
+      </c>
+      <c r="AW24">
+        <v>1198</v>
+      </c>
+      <c r="AX24">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1200</v>
+      </c>
+      <c r="B25">
+        <v>1201</v>
+      </c>
+      <c r="C25">
+        <v>1202</v>
+      </c>
+      <c r="D25">
+        <v>1203</v>
+      </c>
+      <c r="E25">
+        <v>1204</v>
+      </c>
+      <c r="F25">
+        <v>1205</v>
+      </c>
+      <c r="G25">
+        <v>1206</v>
+      </c>
+      <c r="H25">
+        <v>1207</v>
+      </c>
+      <c r="I25">
+        <v>1208</v>
+      </c>
+      <c r="J25">
+        <v>1209</v>
+      </c>
+      <c r="K25">
+        <v>1210</v>
+      </c>
+      <c r="L25">
+        <v>1211</v>
+      </c>
+      <c r="M25">
+        <v>1212</v>
+      </c>
+      <c r="N25">
+        <v>1213</v>
+      </c>
+      <c r="O25">
+        <v>1214</v>
+      </c>
+      <c r="P25">
+        <v>1215</v>
+      </c>
+      <c r="Q25">
+        <v>1216</v>
+      </c>
+      <c r="R25">
+        <v>1217</v>
+      </c>
+      <c r="S25">
+        <v>1218</v>
+      </c>
+      <c r="T25">
+        <v>1219</v>
+      </c>
+      <c r="U25">
+        <v>1220</v>
+      </c>
+      <c r="V25">
+        <v>1221</v>
+      </c>
+      <c r="W25">
+        <v>1222</v>
+      </c>
+      <c r="X25">
+        <v>1223</v>
+      </c>
+      <c r="Y25">
+        <v>1224</v>
+      </c>
+      <c r="Z25">
+        <v>1225</v>
+      </c>
+      <c r="AA25">
+        <v>1226</v>
+      </c>
+      <c r="AB25">
+        <v>1227</v>
+      </c>
+      <c r="AC25">
+        <v>1228</v>
+      </c>
+      <c r="AD25">
+        <v>1229</v>
+      </c>
+      <c r="AE25">
+        <v>1230</v>
+      </c>
+      <c r="AF25">
+        <v>1231</v>
+      </c>
+      <c r="AG25">
+        <v>1232</v>
+      </c>
+      <c r="AH25">
+        <v>1233</v>
+      </c>
+      <c r="AI25">
+        <v>1234</v>
+      </c>
+      <c r="AJ25">
+        <v>1235</v>
+      </c>
+      <c r="AK25">
+        <v>1236</v>
+      </c>
+      <c r="AL25">
+        <v>1237</v>
+      </c>
+      <c r="AM25">
+        <v>1238</v>
+      </c>
+      <c r="AN25">
+        <v>1239</v>
+      </c>
+      <c r="AO25">
+        <v>1240</v>
+      </c>
+      <c r="AP25">
+        <v>1241</v>
+      </c>
+      <c r="AQ25">
+        <v>1242</v>
+      </c>
+      <c r="AR25">
+        <v>1243</v>
+      </c>
+      <c r="AS25">
+        <v>1244</v>
+      </c>
+      <c r="AT25">
+        <v>1245</v>
+      </c>
+      <c r="AU25">
+        <v>1246</v>
+      </c>
+      <c r="AV25">
+        <v>1247</v>
+      </c>
+      <c r="AW25">
+        <v>1248</v>
+      </c>
+      <c r="AX25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1250</v>
+      </c>
+      <c r="B26">
+        <v>1251</v>
+      </c>
+      <c r="C26">
+        <v>1252</v>
+      </c>
+      <c r="D26">
+        <v>1253</v>
+      </c>
+      <c r="E26">
+        <v>1254</v>
+      </c>
+      <c r="F26">
+        <v>1255</v>
+      </c>
+      <c r="G26">
+        <v>1256</v>
+      </c>
+      <c r="H26">
+        <v>1257</v>
+      </c>
+      <c r="I26">
+        <v>1258</v>
+      </c>
+      <c r="J26">
+        <v>1259</v>
+      </c>
+      <c r="K26">
+        <v>1260</v>
+      </c>
+      <c r="L26">
+        <v>1261</v>
+      </c>
+      <c r="M26">
+        <v>1262</v>
+      </c>
+      <c r="N26">
+        <v>1263</v>
+      </c>
+      <c r="O26">
+        <v>1264</v>
+      </c>
+      <c r="P26">
+        <v>1265</v>
+      </c>
+      <c r="Q26">
+        <v>1266</v>
+      </c>
+      <c r="R26">
+        <v>1267</v>
+      </c>
+      <c r="S26">
+        <v>1268</v>
+      </c>
+      <c r="T26">
+        <v>1269</v>
+      </c>
+      <c r="U26">
+        <v>1270</v>
+      </c>
+      <c r="V26">
+        <v>1271</v>
+      </c>
+      <c r="W26">
+        <v>1272</v>
+      </c>
+      <c r="X26">
+        <v>1273</v>
+      </c>
+      <c r="Y26">
+        <v>1274</v>
+      </c>
+      <c r="Z26">
+        <v>1275</v>
+      </c>
+      <c r="AA26">
+        <v>1276</v>
+      </c>
+      <c r="AB26">
+        <v>1277</v>
+      </c>
+      <c r="AC26">
+        <v>1278</v>
+      </c>
+      <c r="AD26">
+        <v>1279</v>
+      </c>
+      <c r="AE26">
+        <v>1280</v>
+      </c>
+      <c r="AF26">
+        <v>1281</v>
+      </c>
+      <c r="AG26">
+        <v>1282</v>
+      </c>
+      <c r="AH26">
+        <v>1283</v>
+      </c>
+      <c r="AI26">
+        <v>1284</v>
+      </c>
+      <c r="AJ26">
+        <v>1285</v>
+      </c>
+      <c r="AK26">
+        <v>1286</v>
+      </c>
+      <c r="AL26">
+        <v>1287</v>
+      </c>
+      <c r="AM26">
+        <v>1288</v>
+      </c>
+      <c r="AN26">
+        <v>1289</v>
+      </c>
+      <c r="AO26">
+        <v>1290</v>
+      </c>
+      <c r="AP26">
+        <v>1291</v>
+      </c>
+      <c r="AQ26">
+        <v>1292</v>
+      </c>
+      <c r="AR26">
+        <v>1293</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>1294</v>
+      </c>
+      <c r="AT26">
+        <v>1295</v>
+      </c>
+      <c r="AU26">
+        <v>1296</v>
+      </c>
+      <c r="AV26">
+        <v>1297</v>
+      </c>
+      <c r="AW26">
+        <v>1298</v>
+      </c>
+      <c r="AX26">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1300</v>
+      </c>
+      <c r="B27">
+        <v>1301</v>
+      </c>
+      <c r="C27">
+        <v>1302</v>
+      </c>
+      <c r="D27">
+        <v>1303</v>
+      </c>
+      <c r="E27">
+        <v>1304</v>
+      </c>
+      <c r="F27">
+        <v>1305</v>
+      </c>
+      <c r="G27">
+        <v>1306</v>
+      </c>
+      <c r="H27">
+        <v>1307</v>
+      </c>
+      <c r="I27">
+        <v>1308</v>
+      </c>
+      <c r="J27">
+        <v>1309</v>
+      </c>
+      <c r="K27">
+        <v>1310</v>
+      </c>
+      <c r="L27">
+        <v>1311</v>
+      </c>
+      <c r="M27">
+        <v>1312</v>
+      </c>
+      <c r="N27">
+        <v>1313</v>
+      </c>
+      <c r="O27">
+        <v>1314</v>
+      </c>
+      <c r="P27">
+        <v>1315</v>
+      </c>
+      <c r="Q27">
+        <v>1316</v>
+      </c>
+      <c r="R27">
+        <v>1317</v>
+      </c>
+      <c r="S27">
+        <v>1318</v>
+      </c>
+      <c r="T27">
+        <v>1319</v>
+      </c>
+      <c r="U27">
+        <v>1320</v>
+      </c>
+      <c r="V27">
+        <v>1321</v>
+      </c>
+      <c r="W27">
+        <v>1322</v>
+      </c>
+      <c r="X27">
+        <v>1323</v>
+      </c>
+      <c r="Y27">
+        <v>1324</v>
+      </c>
+      <c r="Z27">
+        <v>1325</v>
+      </c>
+      <c r="AA27">
+        <v>1326</v>
+      </c>
+      <c r="AB27">
+        <v>1327</v>
+      </c>
+      <c r="AC27">
+        <v>1328</v>
+      </c>
+      <c r="AD27">
+        <v>1329</v>
+      </c>
+      <c r="AE27">
+        <v>1330</v>
+      </c>
+      <c r="AF27">
+        <v>1331</v>
+      </c>
+      <c r="AG27">
+        <v>1332</v>
+      </c>
+      <c r="AH27">
+        <v>1333</v>
+      </c>
+      <c r="AI27">
+        <v>1334</v>
+      </c>
+      <c r="AJ27">
+        <v>1335</v>
+      </c>
+      <c r="AK27">
+        <v>1336</v>
+      </c>
+      <c r="AL27">
+        <v>1337</v>
+      </c>
+      <c r="AM27">
+        <v>1338</v>
+      </c>
+      <c r="AN27">
+        <v>1339</v>
+      </c>
+      <c r="AO27">
+        <v>1340</v>
+      </c>
+      <c r="AP27">
+        <v>1341</v>
+      </c>
+      <c r="AQ27">
+        <v>1342</v>
+      </c>
+      <c r="AR27">
+        <v>1343</v>
+      </c>
+      <c r="AS27">
+        <v>1344</v>
+      </c>
+      <c r="AT27">
+        <v>1345</v>
+      </c>
+      <c r="AU27">
+        <v>1346</v>
+      </c>
+      <c r="AV27">
+        <v>1347</v>
+      </c>
+      <c r="AW27">
+        <v>1348</v>
+      </c>
+      <c r="AX27">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1350</v>
+      </c>
+      <c r="B28">
+        <v>1351</v>
+      </c>
+      <c r="C28">
+        <v>1352</v>
+      </c>
+      <c r="D28">
+        <v>1353</v>
+      </c>
+      <c r="E28">
+        <v>1354</v>
+      </c>
+      <c r="F28">
+        <v>1355</v>
+      </c>
+      <c r="G28">
+        <v>1356</v>
+      </c>
+      <c r="H28">
+        <v>1357</v>
+      </c>
+      <c r="I28">
+        <v>1358</v>
+      </c>
+      <c r="J28">
+        <v>1359</v>
+      </c>
+      <c r="K28">
+        <v>1360</v>
+      </c>
+      <c r="L28">
+        <v>1361</v>
+      </c>
+      <c r="M28">
+        <v>1362</v>
+      </c>
+      <c r="N28">
+        <v>1363</v>
+      </c>
+      <c r="O28">
+        <v>1364</v>
+      </c>
+      <c r="P28">
+        <v>1365</v>
+      </c>
+      <c r="Q28">
+        <v>1366</v>
+      </c>
+      <c r="R28">
+        <v>1367</v>
+      </c>
+      <c r="S28">
+        <v>1368</v>
+      </c>
+      <c r="T28">
+        <v>1369</v>
+      </c>
+      <c r="U28">
+        <v>1370</v>
+      </c>
+      <c r="V28">
+        <v>1371</v>
+      </c>
+      <c r="W28">
+        <v>1372</v>
+      </c>
+      <c r="X28">
+        <v>1373</v>
+      </c>
+      <c r="Y28">
+        <v>1374</v>
+      </c>
+      <c r="Z28">
+        <v>1375</v>
+      </c>
+      <c r="AA28">
+        <v>1376</v>
+      </c>
+      <c r="AB28">
+        <v>1377</v>
+      </c>
+      <c r="AC28">
+        <v>1378</v>
+      </c>
+      <c r="AD28">
+        <v>1379</v>
+      </c>
+      <c r="AE28">
+        <v>1380</v>
+      </c>
+      <c r="AF28">
+        <v>1381</v>
+      </c>
+      <c r="AG28">
+        <v>1382</v>
+      </c>
+      <c r="AH28">
+        <v>1383</v>
+      </c>
+      <c r="AI28">
+        <v>1384</v>
+      </c>
+      <c r="AJ28">
+        <v>1385</v>
+      </c>
+      <c r="AK28">
+        <v>1386</v>
+      </c>
+      <c r="AL28">
+        <v>1387</v>
+      </c>
+      <c r="AM28">
+        <v>1388</v>
+      </c>
+      <c r="AN28">
+        <v>1389</v>
+      </c>
+      <c r="AO28">
+        <v>1390</v>
+      </c>
+      <c r="AP28">
+        <v>1391</v>
+      </c>
+      <c r="AQ28">
+        <v>1392</v>
+      </c>
+      <c r="AR28">
+        <v>1393</v>
+      </c>
+      <c r="AS28">
+        <v>1394</v>
+      </c>
+      <c r="AT28">
+        <v>1395</v>
+      </c>
+      <c r="AU28">
+        <v>1396</v>
+      </c>
+      <c r="AV28">
+        <v>1397</v>
+      </c>
+      <c r="AW28">
+        <v>1398</v>
+      </c>
+      <c r="AX28">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1400</v>
+      </c>
+      <c r="B29">
+        <v>1401</v>
+      </c>
+      <c r="C29">
+        <v>1402</v>
+      </c>
+      <c r="D29">
+        <v>1403</v>
+      </c>
+      <c r="E29">
+        <v>1404</v>
+      </c>
+      <c r="F29">
+        <v>1405</v>
+      </c>
+      <c r="G29">
+        <v>1406</v>
+      </c>
+      <c r="H29">
+        <v>1407</v>
+      </c>
+      <c r="I29">
+        <v>1408</v>
+      </c>
+      <c r="J29">
+        <v>1409</v>
+      </c>
+      <c r="K29">
+        <v>1410</v>
+      </c>
+      <c r="L29">
+        <v>1411</v>
+      </c>
+      <c r="M29">
+        <v>1412</v>
+      </c>
+      <c r="N29">
+        <v>1413</v>
+      </c>
+      <c r="O29">
+        <v>1414</v>
+      </c>
+      <c r="P29">
+        <v>1415</v>
+      </c>
+      <c r="Q29">
+        <v>1416</v>
+      </c>
+      <c r="R29">
+        <v>1417</v>
+      </c>
+      <c r="S29">
+        <v>1418</v>
+      </c>
+      <c r="T29">
+        <v>1419</v>
+      </c>
+      <c r="U29">
+        <v>1420</v>
+      </c>
+      <c r="V29">
+        <v>1421</v>
+      </c>
+      <c r="W29">
+        <v>1422</v>
+      </c>
+      <c r="X29">
+        <v>1423</v>
+      </c>
+      <c r="Y29">
+        <v>1424</v>
+      </c>
+      <c r="Z29">
+        <v>1425</v>
+      </c>
+      <c r="AA29">
+        <v>1426</v>
+      </c>
+      <c r="AB29">
+        <v>1427</v>
+      </c>
+      <c r="AC29">
+        <v>1428</v>
+      </c>
+      <c r="AD29">
+        <v>1429</v>
+      </c>
+      <c r="AE29">
+        <v>1430</v>
+      </c>
+      <c r="AF29">
+        <v>1431</v>
+      </c>
+      <c r="AG29">
+        <v>1432</v>
+      </c>
+      <c r="AH29">
+        <v>1433</v>
+      </c>
+      <c r="AI29">
+        <v>1434</v>
+      </c>
+      <c r="AJ29">
+        <v>1435</v>
+      </c>
+      <c r="AK29">
+        <v>1436</v>
+      </c>
+      <c r="AL29">
+        <v>1437</v>
+      </c>
+      <c r="AM29">
+        <v>1438</v>
+      </c>
+      <c r="AN29">
+        <v>1439</v>
+      </c>
+      <c r="AO29">
+        <v>1440</v>
+      </c>
+      <c r="AP29">
+        <v>1441</v>
+      </c>
+      <c r="AQ29">
+        <v>1442</v>
+      </c>
+      <c r="AR29">
+        <v>1443</v>
+      </c>
+      <c r="AS29">
+        <v>1444</v>
+      </c>
+      <c r="AT29">
+        <v>1445</v>
+      </c>
+      <c r="AU29">
+        <v>1446</v>
+      </c>
+      <c r="AV29">
+        <v>1447</v>
+      </c>
+      <c r="AW29">
+        <v>1448</v>
+      </c>
+      <c r="AX29">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1450</v>
+      </c>
+      <c r="B30">
+        <v>1451</v>
+      </c>
+      <c r="C30">
+        <v>1452</v>
+      </c>
+      <c r="D30">
+        <v>1453</v>
+      </c>
+      <c r="E30">
+        <v>1454</v>
+      </c>
+      <c r="F30">
+        <v>1455</v>
+      </c>
+      <c r="G30">
+        <v>1456</v>
+      </c>
+      <c r="H30">
+        <v>1457</v>
+      </c>
+      <c r="I30">
+        <v>1458</v>
+      </c>
+      <c r="J30">
+        <v>1459</v>
+      </c>
+      <c r="K30">
+        <v>1460</v>
+      </c>
+      <c r="L30">
+        <v>1461</v>
+      </c>
+      <c r="M30">
+        <v>1462</v>
+      </c>
+      <c r="N30">
+        <v>1463</v>
+      </c>
+      <c r="O30">
+        <v>1464</v>
+      </c>
+      <c r="P30">
+        <v>1465</v>
+      </c>
+      <c r="Q30">
+        <v>1466</v>
+      </c>
+      <c r="R30">
+        <v>1467</v>
+      </c>
+      <c r="S30">
+        <v>1468</v>
+      </c>
+      <c r="T30">
+        <v>1469</v>
+      </c>
+      <c r="U30">
+        <v>1470</v>
+      </c>
+      <c r="V30">
+        <v>1471</v>
+      </c>
+      <c r="W30">
+        <v>1472</v>
+      </c>
+      <c r="X30">
+        <v>1473</v>
+      </c>
+      <c r="Y30">
+        <v>1474</v>
+      </c>
+      <c r="Z30">
+        <v>1475</v>
+      </c>
+      <c r="AA30">
+        <v>1476</v>
+      </c>
+      <c r="AB30">
+        <v>1477</v>
+      </c>
+      <c r="AC30">
+        <v>1478</v>
+      </c>
+      <c r="AD30">
+        <v>1479</v>
+      </c>
+      <c r="AE30">
+        <v>1480</v>
+      </c>
+      <c r="AF30">
+        <v>1481</v>
+      </c>
+      <c r="AG30">
+        <v>1482</v>
+      </c>
+      <c r="AH30">
+        <v>1483</v>
+      </c>
+      <c r="AI30">
+        <v>1484</v>
+      </c>
+      <c r="AJ30">
+        <v>1485</v>
+      </c>
+      <c r="AK30">
+        <v>1486</v>
+      </c>
+      <c r="AL30">
+        <v>1487</v>
+      </c>
+      <c r="AM30">
+        <v>1488</v>
+      </c>
+      <c r="AN30">
+        <v>1489</v>
+      </c>
+      <c r="AO30">
+        <v>1490</v>
+      </c>
+      <c r="AP30">
+        <v>1491</v>
+      </c>
+      <c r="AQ30">
+        <v>1492</v>
+      </c>
+      <c r="AR30">
+        <v>1493</v>
+      </c>
+      <c r="AS30">
+        <v>1494</v>
+      </c>
+      <c r="AT30">
+        <v>1495</v>
+      </c>
+      <c r="AU30">
+        <v>1496</v>
+      </c>
+      <c r="AV30">
+        <v>1497</v>
+      </c>
+      <c r="AW30">
+        <v>1498</v>
+      </c>
+      <c r="AX30">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1500</v>
+      </c>
+      <c r="B31">
+        <v>1501</v>
+      </c>
+      <c r="C31">
+        <v>1502</v>
+      </c>
+      <c r="D31">
+        <v>1503</v>
+      </c>
+      <c r="E31">
+        <v>1504</v>
+      </c>
+      <c r="F31">
+        <v>1505</v>
+      </c>
+      <c r="G31">
+        <v>1506</v>
+      </c>
+      <c r="H31">
+        <v>1507</v>
+      </c>
+      <c r="I31">
+        <v>1508</v>
+      </c>
+      <c r="J31">
+        <v>1509</v>
+      </c>
+      <c r="K31">
+        <v>1510</v>
+      </c>
+      <c r="L31">
+        <v>1511</v>
+      </c>
+      <c r="M31">
+        <v>1512</v>
+      </c>
+      <c r="N31">
+        <v>1513</v>
+      </c>
+      <c r="O31">
+        <v>1514</v>
+      </c>
+      <c r="P31">
+        <v>1515</v>
+      </c>
+      <c r="Q31">
+        <v>1516</v>
+      </c>
+      <c r="R31">
+        <v>1517</v>
+      </c>
+      <c r="S31">
+        <v>1518</v>
+      </c>
+      <c r="T31">
+        <v>1519</v>
+      </c>
+      <c r="U31">
+        <v>1520</v>
+      </c>
+      <c r="V31">
+        <v>1521</v>
+      </c>
+      <c r="W31">
+        <v>1522</v>
+      </c>
+      <c r="X31">
+        <v>1523</v>
+      </c>
+      <c r="Y31">
+        <v>1524</v>
+      </c>
+      <c r="Z31">
+        <v>1525</v>
+      </c>
+      <c r="AA31">
+        <v>1526</v>
+      </c>
+      <c r="AB31">
+        <v>1527</v>
+      </c>
+      <c r="AC31">
+        <v>1528</v>
+      </c>
+      <c r="AD31">
+        <v>1529</v>
+      </c>
+      <c r="AE31">
+        <v>1530</v>
+      </c>
+      <c r="AF31">
+        <v>1531</v>
+      </c>
+      <c r="AG31">
+        <v>1532</v>
+      </c>
+      <c r="AH31">
+        <v>1533</v>
+      </c>
+      <c r="AI31">
+        <v>1534</v>
+      </c>
+      <c r="AJ31">
+        <v>1535</v>
+      </c>
+      <c r="AK31">
+        <v>1536</v>
+      </c>
+      <c r="AL31">
+        <v>1537</v>
+      </c>
+      <c r="AM31">
+        <v>1538</v>
+      </c>
+      <c r="AN31">
+        <v>1539</v>
+      </c>
+      <c r="AO31">
+        <v>1540</v>
+      </c>
+      <c r="AP31">
+        <v>1541</v>
+      </c>
+      <c r="AQ31">
+        <v>1542</v>
+      </c>
+      <c r="AR31">
+        <v>1543</v>
+      </c>
+      <c r="AS31">
+        <v>1544</v>
+      </c>
+      <c r="AT31">
+        <v>1545</v>
+      </c>
+      <c r="AU31">
+        <v>1546</v>
+      </c>
+      <c r="AV31">
+        <v>1547</v>
+      </c>
+      <c r="AW31">
+        <v>1548</v>
+      </c>
+      <c r="AX31">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1550</v>
+      </c>
+      <c r="B32">
+        <v>1551</v>
+      </c>
+      <c r="C32">
+        <v>1552</v>
+      </c>
+      <c r="D32">
+        <v>1553</v>
+      </c>
+      <c r="E32">
+        <v>1554</v>
+      </c>
+      <c r="F32">
+        <v>1555</v>
+      </c>
+      <c r="G32">
+        <v>1556</v>
+      </c>
+      <c r="H32">
+        <v>1557</v>
+      </c>
+      <c r="I32">
+        <v>1558</v>
+      </c>
+      <c r="J32">
+        <v>1559</v>
+      </c>
+      <c r="K32">
+        <v>1560</v>
+      </c>
+      <c r="L32">
+        <v>1561</v>
+      </c>
+      <c r="M32">
+        <v>1562</v>
+      </c>
+      <c r="N32">
+        <v>1563</v>
+      </c>
+      <c r="O32">
+        <v>1564</v>
+      </c>
+      <c r="P32">
+        <v>1565</v>
+      </c>
+      <c r="Q32">
+        <v>1566</v>
+      </c>
+      <c r="R32">
+        <v>1567</v>
+      </c>
+      <c r="S32">
+        <v>1568</v>
+      </c>
+      <c r="T32">
+        <v>1569</v>
+      </c>
+      <c r="U32">
+        <v>1570</v>
+      </c>
+      <c r="V32">
+        <v>1571</v>
+      </c>
+      <c r="W32">
+        <v>1572</v>
+      </c>
+      <c r="X32">
+        <v>1573</v>
+      </c>
+      <c r="Y32">
+        <v>1574</v>
+      </c>
+      <c r="Z32">
+        <v>1575</v>
+      </c>
+      <c r="AA32">
+        <v>1576</v>
+      </c>
+      <c r="AB32">
+        <v>1577</v>
+      </c>
+      <c r="AC32">
+        <v>1578</v>
+      </c>
+      <c r="AD32">
+        <v>1579</v>
+      </c>
+      <c r="AE32">
+        <v>1580</v>
+      </c>
+      <c r="AF32">
+        <v>1581</v>
+      </c>
+      <c r="AG32">
+        <v>1582</v>
+      </c>
+      <c r="AH32">
+        <v>1583</v>
+      </c>
+      <c r="AI32">
+        <v>1584</v>
+      </c>
+      <c r="AJ32">
+        <v>1585</v>
+      </c>
+      <c r="AK32">
+        <v>1586</v>
+      </c>
+      <c r="AL32">
+        <v>1587</v>
+      </c>
+      <c r="AM32">
+        <v>1588</v>
+      </c>
+      <c r="AN32">
+        <v>1589</v>
+      </c>
+      <c r="AO32">
+        <v>1590</v>
+      </c>
+      <c r="AP32">
+        <v>1591</v>
+      </c>
+      <c r="AQ32">
+        <v>1592</v>
+      </c>
+      <c r="AR32">
+        <v>1593</v>
+      </c>
+      <c r="AS32">
+        <v>1594</v>
+      </c>
+      <c r="AT32">
+        <v>1595</v>
+      </c>
+      <c r="AU32">
+        <v>1596</v>
+      </c>
+      <c r="AV32">
+        <v>1597</v>
+      </c>
+      <c r="AW32">
+        <v>1598</v>
+      </c>
+      <c r="AX32">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1600</v>
+      </c>
+      <c r="B33">
+        <v>1601</v>
+      </c>
+      <c r="C33">
+        <v>1602</v>
+      </c>
+      <c r="D33">
+        <v>1603</v>
+      </c>
+      <c r="E33">
+        <v>1604</v>
+      </c>
+      <c r="F33">
+        <v>1605</v>
+      </c>
+      <c r="G33">
+        <v>1606</v>
+      </c>
+      <c r="H33">
+        <v>1607</v>
+      </c>
+      <c r="I33">
+        <v>1608</v>
+      </c>
+      <c r="J33">
+        <v>1609</v>
+      </c>
+      <c r="K33">
+        <v>1610</v>
+      </c>
+      <c r="L33">
+        <v>1611</v>
+      </c>
+      <c r="M33">
+        <v>1612</v>
+      </c>
+      <c r="N33">
+        <v>1613</v>
+      </c>
+      <c r="O33">
+        <v>1614</v>
+      </c>
+      <c r="P33">
+        <v>1615</v>
+      </c>
+      <c r="Q33">
+        <v>1616</v>
+      </c>
+      <c r="R33">
+        <v>1617</v>
+      </c>
+      <c r="S33">
+        <v>1618</v>
+      </c>
+      <c r="T33">
+        <v>1619</v>
+      </c>
+      <c r="U33">
+        <v>1620</v>
+      </c>
+      <c r="V33">
+        <v>1621</v>
+      </c>
+      <c r="W33">
+        <v>1622</v>
+      </c>
+      <c r="X33">
+        <v>1623</v>
+      </c>
+      <c r="Y33">
+        <v>1624</v>
+      </c>
+      <c r="Z33">
+        <v>1625</v>
+      </c>
+      <c r="AA33">
+        <v>1626</v>
+      </c>
+      <c r="AB33">
+        <v>1627</v>
+      </c>
+      <c r="AC33">
+        <v>1628</v>
+      </c>
+      <c r="AD33">
+        <v>1629</v>
+      </c>
+      <c r="AE33">
+        <v>1630</v>
+      </c>
+      <c r="AF33">
+        <v>1631</v>
+      </c>
+      <c r="AG33">
+        <v>1632</v>
+      </c>
+      <c r="AH33">
+        <v>1633</v>
+      </c>
+      <c r="AI33">
+        <v>1634</v>
+      </c>
+      <c r="AJ33">
+        <v>1635</v>
+      </c>
+      <c r="AK33">
+        <v>1636</v>
+      </c>
+      <c r="AL33">
+        <v>1637</v>
+      </c>
+      <c r="AM33">
+        <v>1638</v>
+      </c>
+      <c r="AN33">
+        <v>1639</v>
+      </c>
+      <c r="AO33">
+        <v>1640</v>
+      </c>
+      <c r="AP33">
+        <v>1641</v>
+      </c>
+      <c r="AQ33">
+        <v>1642</v>
+      </c>
+      <c r="AR33">
+        <v>1643</v>
+      </c>
+      <c r="AS33">
+        <v>1644</v>
+      </c>
+      <c r="AT33">
+        <v>1645</v>
+      </c>
+      <c r="AU33">
+        <v>1646</v>
+      </c>
+      <c r="AV33">
+        <v>1647</v>
+      </c>
+      <c r="AW33">
+        <v>1648</v>
+      </c>
+      <c r="AX33">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1650</v>
+      </c>
+      <c r="B34">
+        <v>1651</v>
+      </c>
+      <c r="C34">
+        <v>1652</v>
+      </c>
+      <c r="D34">
+        <v>1653</v>
+      </c>
+      <c r="E34">
+        <v>1654</v>
+      </c>
+      <c r="F34">
+        <v>1655</v>
+      </c>
+      <c r="G34">
+        <v>1656</v>
+      </c>
+      <c r="H34">
+        <v>1657</v>
+      </c>
+      <c r="I34">
+        <v>1658</v>
+      </c>
+      <c r="J34">
+        <v>1659</v>
+      </c>
+      <c r="K34">
+        <v>1660</v>
+      </c>
+      <c r="L34">
+        <v>1661</v>
+      </c>
+      <c r="M34">
+        <v>1662</v>
+      </c>
+      <c r="N34">
+        <v>1663</v>
+      </c>
+      <c r="O34">
+        <v>1664</v>
+      </c>
+      <c r="P34">
+        <v>1665</v>
+      </c>
+      <c r="Q34">
+        <v>1666</v>
+      </c>
+      <c r="R34">
+        <v>1667</v>
+      </c>
+      <c r="S34">
+        <v>1668</v>
+      </c>
+      <c r="T34">
+        <v>1669</v>
+      </c>
+      <c r="U34">
+        <v>1670</v>
+      </c>
+      <c r="V34">
+        <v>1671</v>
+      </c>
+      <c r="W34">
+        <v>1672</v>
+      </c>
+      <c r="X34">
+        <v>1673</v>
+      </c>
+      <c r="Y34">
+        <v>1674</v>
+      </c>
+      <c r="Z34">
+        <v>1675</v>
+      </c>
+      <c r="AA34">
+        <v>1676</v>
+      </c>
+      <c r="AB34">
+        <v>1677</v>
+      </c>
+      <c r="AC34">
+        <v>1678</v>
+      </c>
+      <c r="AD34">
+        <v>1679</v>
+      </c>
+      <c r="AE34">
+        <v>1680</v>
+      </c>
+      <c r="AF34">
+        <v>1681</v>
+      </c>
+      <c r="AG34">
+        <v>1682</v>
+      </c>
+      <c r="AH34">
+        <v>1683</v>
+      </c>
+      <c r="AI34">
+        <v>1684</v>
+      </c>
+      <c r="AJ34">
+        <v>1685</v>
+      </c>
+      <c r="AK34">
+        <v>1686</v>
+      </c>
+      <c r="AL34">
+        <v>1687</v>
+      </c>
+      <c r="AM34">
+        <v>1688</v>
+      </c>
+      <c r="AN34">
+        <v>1689</v>
+      </c>
+      <c r="AO34">
+        <v>1690</v>
+      </c>
+      <c r="AP34">
+        <v>1691</v>
+      </c>
+      <c r="AQ34">
+        <v>1692</v>
+      </c>
+      <c r="AR34">
+        <v>1693</v>
+      </c>
+      <c r="AS34">
+        <v>1694</v>
+      </c>
+      <c r="AT34">
+        <v>1695</v>
+      </c>
+      <c r="AU34">
+        <v>1696</v>
+      </c>
+      <c r="AV34">
+        <v>1697</v>
+      </c>
+      <c r="AW34">
+        <v>1698</v>
+      </c>
+      <c r="AX34">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1700</v>
+      </c>
+      <c r="B35">
+        <v>1701</v>
+      </c>
+      <c r="C35">
+        <v>1702</v>
+      </c>
+      <c r="D35">
+        <v>1703</v>
+      </c>
+      <c r="E35">
+        <v>1704</v>
+      </c>
+      <c r="F35">
+        <v>1705</v>
+      </c>
+      <c r="G35">
+        <v>1706</v>
+      </c>
+      <c r="H35">
+        <v>1707</v>
+      </c>
+      <c r="I35">
+        <v>1708</v>
+      </c>
+      <c r="J35">
+        <v>1709</v>
+      </c>
+      <c r="K35">
+        <v>1710</v>
+      </c>
+      <c r="L35">
+        <v>1711</v>
+      </c>
+      <c r="M35">
+        <v>1712</v>
+      </c>
+      <c r="N35">
+        <v>1713</v>
+      </c>
+      <c r="O35">
+        <v>1714</v>
+      </c>
+      <c r="P35">
+        <v>1715</v>
+      </c>
+      <c r="Q35">
+        <v>1716</v>
+      </c>
+      <c r="R35">
+        <v>1717</v>
+      </c>
+      <c r="S35">
+        <v>1718</v>
+      </c>
+      <c r="T35">
+        <v>1719</v>
+      </c>
+      <c r="U35">
+        <v>1720</v>
+      </c>
+      <c r="V35">
+        <v>1721</v>
+      </c>
+      <c r="W35">
+        <v>1722</v>
+      </c>
+      <c r="X35">
+        <v>1723</v>
+      </c>
+      <c r="Y35">
+        <v>1724</v>
+      </c>
+      <c r="Z35">
+        <v>1725</v>
+      </c>
+      <c r="AA35">
+        <v>1726</v>
+      </c>
+      <c r="AB35">
+        <v>1727</v>
+      </c>
+      <c r="AC35">
+        <v>1728</v>
+      </c>
+      <c r="AD35">
+        <v>1729</v>
+      </c>
+      <c r="AE35">
+        <v>1730</v>
+      </c>
+      <c r="AF35">
+        <v>1731</v>
+      </c>
+      <c r="AG35">
+        <v>1732</v>
+      </c>
+      <c r="AH35">
+        <v>1733</v>
+      </c>
+      <c r="AI35">
+        <v>1734</v>
+      </c>
+      <c r="AJ35">
+        <v>1735</v>
+      </c>
+      <c r="AK35">
+        <v>1736</v>
+      </c>
+      <c r="AL35">
+        <v>1737</v>
+      </c>
+      <c r="AM35">
+        <v>1738</v>
+      </c>
+      <c r="AN35">
+        <v>1739</v>
+      </c>
+      <c r="AO35">
+        <v>1740</v>
+      </c>
+      <c r="AP35">
+        <v>1741</v>
+      </c>
+      <c r="AQ35">
+        <v>1742</v>
+      </c>
+      <c r="AR35">
+        <v>1743</v>
+      </c>
+      <c r="AS35">
+        <v>1744</v>
+      </c>
+      <c r="AT35">
+        <v>1745</v>
+      </c>
+      <c r="AU35">
+        <v>1746</v>
+      </c>
+      <c r="AV35">
+        <v>1747</v>
+      </c>
+      <c r="AW35">
+        <v>1748</v>
+      </c>
+      <c r="AX35">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1750</v>
+      </c>
+      <c r="B36">
+        <v>1751</v>
+      </c>
+      <c r="C36">
+        <v>1752</v>
+      </c>
+      <c r="D36">
+        <v>1753</v>
+      </c>
+      <c r="E36">
+        <v>1754</v>
+      </c>
+      <c r="F36">
+        <v>1755</v>
+      </c>
+      <c r="G36">
+        <v>1756</v>
+      </c>
+      <c r="H36">
+        <v>1757</v>
+      </c>
+      <c r="I36">
+        <v>1758</v>
+      </c>
+      <c r="J36">
+        <v>1759</v>
+      </c>
+      <c r="K36">
+        <v>1760</v>
+      </c>
+      <c r="L36">
+        <v>1761</v>
+      </c>
+      <c r="M36">
+        <v>1762</v>
+      </c>
+      <c r="N36">
+        <v>1763</v>
+      </c>
+      <c r="O36">
+        <v>1764</v>
+      </c>
+      <c r="P36">
+        <v>1765</v>
+      </c>
+      <c r="Q36">
+        <v>1766</v>
+      </c>
+      <c r="R36">
+        <v>1767</v>
+      </c>
+      <c r="S36">
+        <v>1768</v>
+      </c>
+      <c r="T36">
+        <v>1769</v>
+      </c>
+      <c r="U36">
+        <v>1770</v>
+      </c>
+      <c r="V36">
+        <v>1771</v>
+      </c>
+      <c r="W36">
+        <v>1772</v>
+      </c>
+      <c r="X36">
+        <v>1773</v>
+      </c>
+      <c r="Y36">
+        <v>1774</v>
+      </c>
+      <c r="Z36">
+        <v>1775</v>
+      </c>
+      <c r="AA36">
+        <v>1776</v>
+      </c>
+      <c r="AB36">
+        <v>1777</v>
+      </c>
+      <c r="AC36">
+        <v>1778</v>
+      </c>
+      <c r="AD36">
+        <v>1779</v>
+      </c>
+      <c r="AE36">
+        <v>1780</v>
+      </c>
+      <c r="AF36">
+        <v>1781</v>
+      </c>
+      <c r="AG36">
+        <v>1782</v>
+      </c>
+      <c r="AH36">
+        <v>1783</v>
+      </c>
+      <c r="AI36">
+        <v>1784</v>
+      </c>
+      <c r="AJ36">
+        <v>1785</v>
+      </c>
+      <c r="AK36">
+        <v>1786</v>
+      </c>
+      <c r="AL36">
+        <v>1787</v>
+      </c>
+      <c r="AM36">
+        <v>1788</v>
+      </c>
+      <c r="AN36">
+        <v>1789</v>
+      </c>
+      <c r="AO36">
+        <v>1790</v>
+      </c>
+      <c r="AP36">
+        <v>1791</v>
+      </c>
+      <c r="AQ36">
+        <v>1792</v>
+      </c>
+      <c r="AR36">
+        <v>1793</v>
+      </c>
+      <c r="AS36">
+        <v>1794</v>
+      </c>
+      <c r="AT36">
+        <v>1795</v>
+      </c>
+      <c r="AU36">
+        <v>1796</v>
+      </c>
+      <c r="AV36">
+        <v>1797</v>
+      </c>
+      <c r="AW36">
+        <v>1798</v>
+      </c>
+      <c r="AX36">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1800</v>
+      </c>
+      <c r="B37">
+        <v>1801</v>
+      </c>
+      <c r="C37">
+        <v>1802</v>
+      </c>
+      <c r="D37">
+        <v>1803</v>
+      </c>
+      <c r="E37">
+        <v>1804</v>
+      </c>
+      <c r="F37">
+        <v>1805</v>
+      </c>
+      <c r="G37">
+        <v>1806</v>
+      </c>
+      <c r="H37">
+        <v>1807</v>
+      </c>
+      <c r="I37">
+        <v>1808</v>
+      </c>
+      <c r="J37">
+        <v>1809</v>
+      </c>
+      <c r="K37">
+        <v>1810</v>
+      </c>
+      <c r="L37">
+        <v>1811</v>
+      </c>
+      <c r="M37">
+        <v>1812</v>
+      </c>
+      <c r="N37">
+        <v>1813</v>
+      </c>
+      <c r="O37">
+        <v>1814</v>
+      </c>
+      <c r="P37">
+        <v>1815</v>
+      </c>
+      <c r="Q37">
+        <v>1816</v>
+      </c>
+      <c r="R37">
+        <v>1817</v>
+      </c>
+      <c r="S37">
+        <v>1818</v>
+      </c>
+      <c r="T37">
+        <v>1819</v>
+      </c>
+      <c r="U37">
+        <v>1820</v>
+      </c>
+      <c r="V37">
+        <v>1821</v>
+      </c>
+      <c r="W37">
+        <v>1822</v>
+      </c>
+      <c r="X37">
+        <v>1823</v>
+      </c>
+      <c r="Y37">
+        <v>1824</v>
+      </c>
+      <c r="Z37">
+        <v>1825</v>
+      </c>
+      <c r="AA37">
+        <v>1826</v>
+      </c>
+      <c r="AB37">
+        <v>1827</v>
+      </c>
+      <c r="AC37">
+        <v>1828</v>
+      </c>
+      <c r="AD37">
+        <v>1829</v>
+      </c>
+      <c r="AE37">
+        <v>1830</v>
+      </c>
+      <c r="AF37">
+        <v>1831</v>
+      </c>
+      <c r="AG37">
+        <v>1832</v>
+      </c>
+      <c r="AH37">
+        <v>1833</v>
+      </c>
+      <c r="AI37">
+        <v>1834</v>
+      </c>
+      <c r="AJ37">
+        <v>1835</v>
+      </c>
+      <c r="AK37">
+        <v>1836</v>
+      </c>
+      <c r="AL37">
+        <v>1837</v>
+      </c>
+      <c r="AM37">
+        <v>1838</v>
+      </c>
+      <c r="AN37">
+        <v>1839</v>
+      </c>
+      <c r="AO37">
+        <v>1840</v>
+      </c>
+      <c r="AP37">
+        <v>1841</v>
+      </c>
+      <c r="AQ37">
+        <v>1842</v>
+      </c>
+      <c r="AR37">
+        <v>1843</v>
+      </c>
+      <c r="AS37">
+        <v>1844</v>
+      </c>
+      <c r="AT37">
+        <v>1845</v>
+      </c>
+      <c r="AU37">
+        <v>1846</v>
+      </c>
+      <c r="AV37">
+        <v>1847</v>
+      </c>
+      <c r="AW37">
+        <v>1848</v>
+      </c>
+      <c r="AX37">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1850</v>
+      </c>
+      <c r="B38">
+        <v>1851</v>
+      </c>
+      <c r="C38">
+        <v>1852</v>
+      </c>
+      <c r="D38">
+        <v>1853</v>
+      </c>
+      <c r="E38">
+        <v>1854</v>
+      </c>
+      <c r="F38">
+        <v>1855</v>
+      </c>
+      <c r="G38">
+        <v>1856</v>
+      </c>
+      <c r="H38">
+        <v>1857</v>
+      </c>
+      <c r="I38">
+        <v>1858</v>
+      </c>
+      <c r="J38">
+        <v>1859</v>
+      </c>
+      <c r="K38">
+        <v>1860</v>
+      </c>
+      <c r="L38">
+        <v>1861</v>
+      </c>
+      <c r="M38">
+        <v>1862</v>
+      </c>
+      <c r="N38">
+        <v>1863</v>
+      </c>
+      <c r="O38">
+        <v>1864</v>
+      </c>
+      <c r="P38">
+        <v>1865</v>
+      </c>
+      <c r="Q38">
+        <v>1866</v>
+      </c>
+      <c r="R38">
+        <v>1867</v>
+      </c>
+      <c r="S38">
+        <v>1868</v>
+      </c>
+      <c r="T38">
+        <v>1869</v>
+      </c>
+      <c r="U38">
+        <v>1870</v>
+      </c>
+      <c r="V38">
+        <v>1871</v>
+      </c>
+      <c r="W38">
+        <v>1872</v>
+      </c>
+      <c r="X38">
+        <v>1873</v>
+      </c>
+      <c r="Y38">
+        <v>1874</v>
+      </c>
+      <c r="Z38">
+        <v>1875</v>
+      </c>
+      <c r="AA38">
+        <v>1876</v>
+      </c>
+      <c r="AB38">
+        <v>1877</v>
+      </c>
+      <c r="AC38">
+        <v>1878</v>
+      </c>
+      <c r="AD38">
+        <v>1879</v>
+      </c>
+      <c r="AE38">
+        <v>1880</v>
+      </c>
+      <c r="AF38">
+        <v>1881</v>
+      </c>
+      <c r="AG38">
+        <v>1882</v>
+      </c>
+      <c r="AH38">
+        <v>1883</v>
+      </c>
+      <c r="AI38">
+        <v>1884</v>
+      </c>
+      <c r="AJ38">
+        <v>1885</v>
+      </c>
+      <c r="AK38">
+        <v>1886</v>
+      </c>
+      <c r="AL38">
+        <v>1887</v>
+      </c>
+      <c r="AM38">
+        <v>1888</v>
+      </c>
+      <c r="AN38">
+        <v>1889</v>
+      </c>
+      <c r="AO38">
+        <v>1890</v>
+      </c>
+      <c r="AP38">
+        <v>1891</v>
+      </c>
+      <c r="AQ38">
+        <v>1892</v>
+      </c>
+      <c r="AR38">
+        <v>1893</v>
+      </c>
+      <c r="AS38">
+        <v>1894</v>
+      </c>
+      <c r="AT38">
+        <v>1895</v>
+      </c>
+      <c r="AU38">
+        <v>1896</v>
+      </c>
+      <c r="AV38">
+        <v>1897</v>
+      </c>
+      <c r="AW38">
+        <v>1898</v>
+      </c>
+      <c r="AX38">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1900</v>
+      </c>
+      <c r="B39">
+        <v>1901</v>
+      </c>
+      <c r="C39">
+        <v>1902</v>
+      </c>
+      <c r="D39">
+        <v>1903</v>
+      </c>
+      <c r="E39">
+        <v>1904</v>
+      </c>
+      <c r="F39">
+        <v>1905</v>
+      </c>
+      <c r="G39">
+        <v>1906</v>
+      </c>
+      <c r="H39">
+        <v>1907</v>
+      </c>
+      <c r="I39">
+        <v>1908</v>
+      </c>
+      <c r="J39">
+        <v>1909</v>
+      </c>
+      <c r="K39">
+        <v>1910</v>
+      </c>
+      <c r="L39">
+        <v>1911</v>
+      </c>
+      <c r="M39">
+        <v>1912</v>
+      </c>
+      <c r="N39">
+        <v>1913</v>
+      </c>
+      <c r="O39">
+        <v>1914</v>
+      </c>
+      <c r="P39">
+        <v>1915</v>
+      </c>
+      <c r="Q39">
+        <v>1916</v>
+      </c>
+      <c r="R39">
+        <v>1917</v>
+      </c>
+      <c r="S39">
+        <v>1918</v>
+      </c>
+      <c r="T39">
+        <v>1919</v>
+      </c>
+      <c r="U39">
+        <v>1920</v>
+      </c>
+      <c r="V39">
+        <v>1921</v>
+      </c>
+      <c r="W39">
+        <v>1922</v>
+      </c>
+      <c r="X39">
+        <v>1923</v>
+      </c>
+      <c r="Y39">
+        <v>1924</v>
+      </c>
+      <c r="Z39">
+        <v>1925</v>
+      </c>
+      <c r="AA39">
+        <v>1926</v>
+      </c>
+      <c r="AB39">
+        <v>1927</v>
+      </c>
+      <c r="AC39">
+        <v>1928</v>
+      </c>
+      <c r="AD39">
+        <v>1929</v>
+      </c>
+      <c r="AE39">
+        <v>1930</v>
+      </c>
+      <c r="AF39">
+        <v>1931</v>
+      </c>
+      <c r="AG39">
+        <v>1932</v>
+      </c>
+      <c r="AH39">
+        <v>1933</v>
+      </c>
+      <c r="AI39">
+        <v>1934</v>
+      </c>
+      <c r="AJ39">
+        <v>1935</v>
+      </c>
+      <c r="AK39">
+        <v>1936</v>
+      </c>
+      <c r="AL39">
+        <v>1937</v>
+      </c>
+      <c r="AM39">
+        <v>1938</v>
+      </c>
+      <c r="AN39">
+        <v>1939</v>
+      </c>
+      <c r="AO39">
+        <v>1940</v>
+      </c>
+      <c r="AP39">
+        <v>1941</v>
+      </c>
+      <c r="AQ39">
+        <v>1942</v>
+      </c>
+      <c r="AR39">
+        <v>1943</v>
+      </c>
+      <c r="AS39">
+        <v>1944</v>
+      </c>
+      <c r="AT39">
+        <v>1945</v>
+      </c>
+      <c r="AU39">
+        <v>1946</v>
+      </c>
+      <c r="AV39">
+        <v>1947</v>
+      </c>
+      <c r="AW39">
+        <v>1948</v>
+      </c>
+      <c r="AX39">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1950</v>
+      </c>
+      <c r="B40">
+        <v>1951</v>
+      </c>
+      <c r="C40">
+        <v>1952</v>
+      </c>
+      <c r="D40">
+        <v>1953</v>
+      </c>
+      <c r="E40">
+        <v>1954</v>
+      </c>
+      <c r="F40">
+        <v>1955</v>
+      </c>
+      <c r="G40">
+        <v>1956</v>
+      </c>
+      <c r="H40">
+        <v>1957</v>
+      </c>
+      <c r="I40">
+        <v>1958</v>
+      </c>
+      <c r="J40">
+        <v>1959</v>
+      </c>
+      <c r="K40">
+        <v>1960</v>
+      </c>
+      <c r="L40">
+        <v>1961</v>
+      </c>
+      <c r="M40">
+        <v>1962</v>
+      </c>
+      <c r="N40">
+        <v>1963</v>
+      </c>
+      <c r="O40">
+        <v>1964</v>
+      </c>
+      <c r="P40">
+        <v>1965</v>
+      </c>
+      <c r="Q40">
+        <v>1966</v>
+      </c>
+      <c r="R40">
+        <v>1967</v>
+      </c>
+      <c r="S40">
+        <v>1968</v>
+      </c>
+      <c r="T40">
+        <v>1969</v>
+      </c>
+      <c r="U40">
+        <v>1970</v>
+      </c>
+      <c r="V40">
+        <v>1971</v>
+      </c>
+      <c r="W40">
+        <v>1972</v>
+      </c>
+      <c r="X40">
+        <v>1973</v>
+      </c>
+      <c r="Y40">
+        <v>1974</v>
+      </c>
+      <c r="Z40">
+        <v>1975</v>
+      </c>
+      <c r="AA40">
+        <v>1976</v>
+      </c>
+      <c r="AB40">
+        <v>1977</v>
+      </c>
+      <c r="AC40">
+        <v>1978</v>
+      </c>
+      <c r="AD40">
+        <v>1979</v>
+      </c>
+      <c r="AE40">
+        <v>1980</v>
+      </c>
+      <c r="AF40">
+        <v>1981</v>
+      </c>
+      <c r="AG40">
+        <v>1982</v>
+      </c>
+      <c r="AH40">
+        <v>1983</v>
+      </c>
+      <c r="AI40">
+        <v>1984</v>
+      </c>
+      <c r="AJ40">
+        <v>1985</v>
+      </c>
+      <c r="AK40">
+        <v>1986</v>
+      </c>
+      <c r="AL40">
+        <v>1987</v>
+      </c>
+      <c r="AM40">
+        <v>1988</v>
+      </c>
+      <c r="AN40">
+        <v>1989</v>
+      </c>
+      <c r="AO40">
+        <v>1990</v>
+      </c>
+      <c r="AP40">
+        <v>1991</v>
+      </c>
+      <c r="AQ40">
+        <v>1992</v>
+      </c>
+      <c r="AR40">
+        <v>1993</v>
+      </c>
+      <c r="AS40">
+        <v>1994</v>
+      </c>
+      <c r="AT40">
+        <v>1995</v>
+      </c>
+      <c r="AU40">
+        <v>1996</v>
+      </c>
+      <c r="AV40">
+        <v>1997</v>
+      </c>
+      <c r="AW40">
+        <v>1998</v>
+      </c>
+      <c r="AX40">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2000</v>
+      </c>
+      <c r="B41">
+        <v>2001</v>
+      </c>
+      <c r="C41">
+        <v>2002</v>
+      </c>
+      <c r="D41">
+        <v>2003</v>
+      </c>
+      <c r="E41">
+        <v>2004</v>
+      </c>
+      <c r="F41">
+        <v>2005</v>
+      </c>
+      <c r="G41">
+        <v>2006</v>
+      </c>
+      <c r="H41">
+        <v>2007</v>
+      </c>
+      <c r="I41">
+        <v>2008</v>
+      </c>
+      <c r="J41">
+        <v>2009</v>
+      </c>
+      <c r="K41">
+        <v>2010</v>
+      </c>
+      <c r="L41">
+        <v>2011</v>
+      </c>
+      <c r="M41">
+        <v>2012</v>
+      </c>
+      <c r="N41">
+        <v>2013</v>
+      </c>
+      <c r="O41">
+        <v>2014</v>
+      </c>
+      <c r="P41">
+        <v>2015</v>
+      </c>
+      <c r="Q41">
+        <v>2016</v>
+      </c>
+      <c r="R41">
+        <v>2017</v>
+      </c>
+      <c r="S41">
+        <v>2018</v>
+      </c>
+      <c r="T41">
+        <v>2019</v>
+      </c>
+      <c r="U41">
+        <v>2020</v>
+      </c>
+      <c r="V41">
+        <v>2021</v>
+      </c>
+      <c r="W41">
+        <v>2022</v>
+      </c>
+      <c r="X41">
+        <v>2023</v>
+      </c>
+      <c r="Y41">
+        <v>2024</v>
+      </c>
+      <c r="Z41">
+        <v>2025</v>
+      </c>
+      <c r="AA41">
+        <v>2026</v>
+      </c>
+      <c r="AB41">
+        <v>2027</v>
+      </c>
+      <c r="AC41">
+        <v>2028</v>
+      </c>
+      <c r="AD41">
+        <v>2029</v>
+      </c>
+      <c r="AE41">
+        <v>2030</v>
+      </c>
+      <c r="AF41">
+        <v>2031</v>
+      </c>
+      <c r="AG41">
+        <v>2032</v>
+      </c>
+      <c r="AH41">
+        <v>2033</v>
+      </c>
+      <c r="AI41">
+        <v>2034</v>
+      </c>
+      <c r="AJ41">
+        <v>2035</v>
+      </c>
+      <c r="AK41">
+        <v>2036</v>
+      </c>
+      <c r="AL41">
+        <v>2037</v>
+      </c>
+      <c r="AM41">
+        <v>2038</v>
+      </c>
+      <c r="AN41">
+        <v>2039</v>
+      </c>
+      <c r="AO41">
+        <v>2040</v>
+      </c>
+      <c r="AP41">
+        <v>2041</v>
+      </c>
+      <c r="AQ41">
+        <v>2042</v>
+      </c>
+      <c r="AR41">
+        <v>2043</v>
+      </c>
+      <c r="AS41">
+        <v>2044</v>
+      </c>
+      <c r="AT41">
+        <v>2045</v>
+      </c>
+      <c r="AU41">
+        <v>2046</v>
+      </c>
+      <c r="AV41">
+        <v>2047</v>
+      </c>
+      <c r="AW41">
+        <v>2048</v>
+      </c>
+      <c r="AX41">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <v>2051</v>
+      </c>
+      <c r="C42">
+        <v>2052</v>
+      </c>
+      <c r="D42">
+        <v>2053</v>
+      </c>
+      <c r="E42">
+        <v>2054</v>
+      </c>
+      <c r="F42">
+        <v>2055</v>
+      </c>
+      <c r="G42">
+        <v>2056</v>
+      </c>
+      <c r="H42">
+        <v>2057</v>
+      </c>
+      <c r="I42">
+        <v>2058</v>
+      </c>
+      <c r="J42">
+        <v>2059</v>
+      </c>
+      <c r="K42">
+        <v>2060</v>
+      </c>
+      <c r="L42">
+        <v>2061</v>
+      </c>
+      <c r="M42">
+        <v>2062</v>
+      </c>
+      <c r="N42">
+        <v>2063</v>
+      </c>
+      <c r="O42">
+        <v>2064</v>
+      </c>
+      <c r="P42">
+        <v>2065</v>
+      </c>
+      <c r="Q42">
+        <v>2066</v>
+      </c>
+      <c r="R42">
+        <v>2067</v>
+      </c>
+      <c r="S42">
+        <v>2068</v>
+      </c>
+      <c r="T42">
+        <v>2069</v>
+      </c>
+      <c r="U42">
+        <v>2070</v>
+      </c>
+      <c r="V42">
+        <v>2071</v>
+      </c>
+      <c r="W42">
+        <v>2072</v>
+      </c>
+      <c r="X42">
+        <v>2073</v>
+      </c>
+      <c r="Y42">
+        <v>2074</v>
+      </c>
+      <c r="Z42">
+        <v>2075</v>
+      </c>
+      <c r="AA42">
+        <v>2076</v>
+      </c>
+      <c r="AB42">
+        <v>2077</v>
+      </c>
+      <c r="AC42">
+        <v>2078</v>
+      </c>
+      <c r="AD42">
+        <v>2079</v>
+      </c>
+      <c r="AE42">
+        <v>2080</v>
+      </c>
+      <c r="AF42">
+        <v>2081</v>
+      </c>
+      <c r="AG42">
+        <v>2082</v>
+      </c>
+      <c r="AH42">
+        <v>2083</v>
+      </c>
+      <c r="AI42">
+        <v>2084</v>
+      </c>
+      <c r="AJ42">
+        <v>2085</v>
+      </c>
+      <c r="AK42">
+        <v>2086</v>
+      </c>
+      <c r="AL42">
+        <v>2087</v>
+      </c>
+      <c r="AM42">
+        <v>2088</v>
+      </c>
+      <c r="AN42">
+        <v>2089</v>
+      </c>
+      <c r="AO42">
+        <v>2090</v>
+      </c>
+      <c r="AP42">
+        <v>2091</v>
+      </c>
+      <c r="AQ42">
+        <v>2092</v>
+      </c>
+      <c r="AR42">
+        <v>2093</v>
+      </c>
+      <c r="AS42">
+        <v>2094</v>
+      </c>
+      <c r="AT42">
+        <v>2095</v>
+      </c>
+      <c r="AU42">
+        <v>2096</v>
+      </c>
+      <c r="AV42">
+        <v>2097</v>
+      </c>
+      <c r="AW42">
+        <v>2098</v>
+      </c>
+      <c r="AX42">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2100</v>
+      </c>
+      <c r="B43">
+        <v>2101</v>
+      </c>
+      <c r="C43">
+        <v>2102</v>
+      </c>
+      <c r="D43">
+        <v>2103</v>
+      </c>
+      <c r="E43">
+        <v>2104</v>
+      </c>
+      <c r="F43">
+        <v>2105</v>
+      </c>
+      <c r="G43">
+        <v>2106</v>
+      </c>
+      <c r="H43">
+        <v>2107</v>
+      </c>
+      <c r="I43">
+        <v>2108</v>
+      </c>
+      <c r="J43">
+        <v>2109</v>
+      </c>
+      <c r="K43">
+        <v>2110</v>
+      </c>
+      <c r="L43">
+        <v>2111</v>
+      </c>
+      <c r="M43">
+        <v>2112</v>
+      </c>
+      <c r="N43">
+        <v>2113</v>
+      </c>
+      <c r="O43">
+        <v>2114</v>
+      </c>
+      <c r="P43">
+        <v>2115</v>
+      </c>
+      <c r="Q43">
+        <v>2116</v>
+      </c>
+      <c r="R43">
+        <v>2117</v>
+      </c>
+      <c r="S43">
+        <v>2118</v>
+      </c>
+      <c r="T43">
+        <v>2119</v>
+      </c>
+      <c r="U43">
+        <v>2120</v>
+      </c>
+      <c r="V43">
+        <v>2121</v>
+      </c>
+      <c r="W43">
+        <v>2122</v>
+      </c>
+      <c r="X43">
+        <v>2123</v>
+      </c>
+      <c r="Y43">
+        <v>2124</v>
+      </c>
+      <c r="Z43">
+        <v>2125</v>
+      </c>
+      <c r="AA43">
+        <v>2126</v>
+      </c>
+      <c r="AB43">
+        <v>2127</v>
+      </c>
+      <c r="AC43">
+        <v>2128</v>
+      </c>
+      <c r="AD43">
+        <v>2129</v>
+      </c>
+      <c r="AE43">
+        <v>2130</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>2131</v>
+      </c>
+      <c r="AG43">
+        <v>2132</v>
+      </c>
+      <c r="AH43">
+        <v>2133</v>
+      </c>
+      <c r="AI43">
+        <v>2134</v>
+      </c>
+      <c r="AJ43">
+        <v>2135</v>
+      </c>
+      <c r="AK43">
+        <v>2136</v>
+      </c>
+      <c r="AL43">
+        <v>2137</v>
+      </c>
+      <c r="AM43">
+        <v>2138</v>
+      </c>
+      <c r="AN43">
+        <v>2139</v>
+      </c>
+      <c r="AO43">
+        <v>2140</v>
+      </c>
+      <c r="AP43">
+        <v>2141</v>
+      </c>
+      <c r="AQ43">
+        <v>2142</v>
+      </c>
+      <c r="AR43">
+        <v>2143</v>
+      </c>
+      <c r="AS43">
+        <v>2144</v>
+      </c>
+      <c r="AT43">
+        <v>2145</v>
+      </c>
+      <c r="AU43">
+        <v>2146</v>
+      </c>
+      <c r="AV43">
+        <v>2147</v>
+      </c>
+      <c r="AW43">
+        <v>2148</v>
+      </c>
+      <c r="AX43">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2150</v>
+      </c>
+      <c r="B44">
+        <v>2151</v>
+      </c>
+      <c r="C44">
+        <v>2152</v>
+      </c>
+      <c r="D44">
+        <v>2153</v>
+      </c>
+      <c r="E44">
+        <v>2154</v>
+      </c>
+      <c r="F44">
+        <v>2155</v>
+      </c>
+      <c r="G44">
+        <v>2156</v>
+      </c>
+      <c r="H44">
+        <v>2157</v>
+      </c>
+      <c r="I44">
+        <v>2158</v>
+      </c>
+      <c r="J44">
+        <v>2159</v>
+      </c>
+      <c r="K44">
+        <v>2160</v>
+      </c>
+      <c r="L44">
+        <v>2161</v>
+      </c>
+      <c r="M44">
+        <v>2162</v>
+      </c>
+      <c r="N44">
+        <v>2163</v>
+      </c>
+      <c r="O44">
+        <v>2164</v>
+      </c>
+      <c r="P44">
+        <v>2165</v>
+      </c>
+      <c r="Q44">
+        <v>2166</v>
+      </c>
+      <c r="R44">
+        <v>2167</v>
+      </c>
+      <c r="S44">
+        <v>2168</v>
+      </c>
+      <c r="T44">
+        <v>2169</v>
+      </c>
+      <c r="U44">
+        <v>2170</v>
+      </c>
+      <c r="V44">
+        <v>2171</v>
+      </c>
+      <c r="W44">
+        <v>2172</v>
+      </c>
+      <c r="X44">
+        <v>2173</v>
+      </c>
+      <c r="Y44">
+        <v>2174</v>
+      </c>
+      <c r="Z44">
+        <v>2175</v>
+      </c>
+      <c r="AA44">
+        <v>2176</v>
+      </c>
+      <c r="AB44">
+        <v>2177</v>
+      </c>
+      <c r="AC44">
+        <v>2178</v>
+      </c>
+      <c r="AD44">
+        <v>2179</v>
+      </c>
+      <c r="AE44">
+        <v>2180</v>
+      </c>
+      <c r="AF44">
+        <v>2181</v>
+      </c>
+      <c r="AG44">
+        <v>2182</v>
+      </c>
+      <c r="AH44">
+        <v>2183</v>
+      </c>
+      <c r="AI44">
+        <v>2184</v>
+      </c>
+      <c r="AJ44">
+        <v>2185</v>
+      </c>
+      <c r="AK44">
+        <v>2186</v>
+      </c>
+      <c r="AL44">
+        <v>2187</v>
+      </c>
+      <c r="AM44">
+        <v>2188</v>
+      </c>
+      <c r="AN44">
+        <v>2189</v>
+      </c>
+      <c r="AO44">
+        <v>2190</v>
+      </c>
+      <c r="AP44">
+        <v>2191</v>
+      </c>
+      <c r="AQ44">
+        <v>2192</v>
+      </c>
+      <c r="AR44">
+        <v>2193</v>
+      </c>
+      <c r="AS44">
+        <v>2194</v>
+      </c>
+      <c r="AT44">
+        <v>2195</v>
+      </c>
+      <c r="AU44">
+        <v>2196</v>
+      </c>
+      <c r="AV44">
+        <v>2197</v>
+      </c>
+      <c r="AW44">
+        <v>2198</v>
+      </c>
+      <c r="AX44">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2200</v>
+      </c>
+      <c r="B45">
+        <v>2201</v>
+      </c>
+      <c r="C45">
+        <v>2202</v>
+      </c>
+      <c r="D45">
+        <v>2203</v>
+      </c>
+      <c r="E45">
+        <v>2204</v>
+      </c>
+      <c r="F45">
+        <v>2205</v>
+      </c>
+      <c r="G45">
+        <v>2206</v>
+      </c>
+      <c r="H45">
+        <v>2207</v>
+      </c>
+      <c r="I45">
+        <v>2208</v>
+      </c>
+      <c r="J45">
+        <v>2209</v>
+      </c>
+      <c r="K45">
+        <v>2210</v>
+      </c>
+      <c r="L45">
+        <v>2211</v>
+      </c>
+      <c r="M45">
+        <v>2212</v>
+      </c>
+      <c r="N45">
+        <v>2213</v>
+      </c>
+      <c r="O45">
+        <v>2214</v>
+      </c>
+      <c r="P45">
+        <v>2215</v>
+      </c>
+      <c r="Q45">
+        <v>2216</v>
+      </c>
+      <c r="R45">
+        <v>2217</v>
+      </c>
+      <c r="S45">
+        <v>2218</v>
+      </c>
+      <c r="T45">
+        <v>2219</v>
+      </c>
+      <c r="U45">
+        <v>2220</v>
+      </c>
+      <c r="V45">
+        <v>2221</v>
+      </c>
+      <c r="W45">
+        <v>2222</v>
+      </c>
+      <c r="X45">
+        <v>2223</v>
+      </c>
+      <c r="Y45">
+        <v>2224</v>
+      </c>
+      <c r="Z45">
+        <v>2225</v>
+      </c>
+      <c r="AA45">
+        <v>2226</v>
+      </c>
+      <c r="AB45">
+        <v>2227</v>
+      </c>
+      <c r="AC45">
+        <v>2228</v>
+      </c>
+      <c r="AD45">
+        <v>2229</v>
+      </c>
+      <c r="AE45">
+        <v>2230</v>
+      </c>
+      <c r="AF45">
+        <v>2231</v>
+      </c>
+      <c r="AG45">
+        <v>2232</v>
+      </c>
+      <c r="AH45">
+        <v>2233</v>
+      </c>
+      <c r="AI45">
+        <v>2234</v>
+      </c>
+      <c r="AJ45">
+        <v>2235</v>
+      </c>
+      <c r="AK45">
+        <v>2236</v>
+      </c>
+      <c r="AL45">
+        <v>2237</v>
+      </c>
+      <c r="AM45">
+        <v>2238</v>
+      </c>
+      <c r="AN45">
+        <v>2239</v>
+      </c>
+      <c r="AO45">
+        <v>2240</v>
+      </c>
+      <c r="AP45">
+        <v>2241</v>
+      </c>
+      <c r="AQ45">
+        <v>2242</v>
+      </c>
+      <c r="AR45">
+        <v>2243</v>
+      </c>
+      <c r="AS45">
+        <v>2244</v>
+      </c>
+      <c r="AT45">
+        <v>2245</v>
+      </c>
+      <c r="AU45">
+        <v>2246</v>
+      </c>
+      <c r="AV45">
+        <v>2247</v>
+      </c>
+      <c r="AW45">
+        <v>2248</v>
+      </c>
+      <c r="AX45">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2250</v>
+      </c>
+      <c r="B46">
+        <v>2251</v>
+      </c>
+      <c r="C46">
+        <v>2252</v>
+      </c>
+      <c r="D46">
+        <v>2253</v>
+      </c>
+      <c r="E46">
+        <v>2254</v>
+      </c>
+      <c r="F46">
+        <v>2255</v>
+      </c>
+      <c r="G46">
+        <v>2256</v>
+      </c>
+      <c r="H46">
+        <v>2257</v>
+      </c>
+      <c r="I46">
+        <v>2258</v>
+      </c>
+      <c r="J46">
+        <v>2259</v>
+      </c>
+      <c r="K46">
+        <v>2260</v>
+      </c>
+      <c r="L46">
+        <v>2261</v>
+      </c>
+      <c r="M46">
+        <v>2262</v>
+      </c>
+      <c r="N46">
+        <v>2263</v>
+      </c>
+      <c r="O46">
+        <v>2264</v>
+      </c>
+      <c r="P46">
+        <v>2265</v>
+      </c>
+      <c r="Q46">
+        <v>2266</v>
+      </c>
+      <c r="R46">
+        <v>2267</v>
+      </c>
+      <c r="S46">
+        <v>2268</v>
+      </c>
+      <c r="T46">
+        <v>2269</v>
+      </c>
+      <c r="U46">
+        <v>2270</v>
+      </c>
+      <c r="V46">
+        <v>2271</v>
+      </c>
+      <c r="W46">
+        <v>2272</v>
+      </c>
+      <c r="X46">
+        <v>2273</v>
+      </c>
+      <c r="Y46">
+        <v>2274</v>
+      </c>
+      <c r="Z46">
+        <v>2275</v>
+      </c>
+      <c r="AA46">
+        <v>2276</v>
+      </c>
+      <c r="AB46">
+        <v>2277</v>
+      </c>
+      <c r="AC46">
+        <v>2278</v>
+      </c>
+      <c r="AD46">
+        <v>2279</v>
+      </c>
+      <c r="AE46">
+        <v>2280</v>
+      </c>
+      <c r="AF46">
+        <v>2281</v>
+      </c>
+      <c r="AG46">
+        <v>2282</v>
+      </c>
+      <c r="AH46">
+        <v>2283</v>
+      </c>
+      <c r="AI46">
+        <v>2284</v>
+      </c>
+      <c r="AJ46">
+        <v>2285</v>
+      </c>
+      <c r="AK46">
+        <v>2286</v>
+      </c>
+      <c r="AL46">
+        <v>2287</v>
+      </c>
+      <c r="AM46">
+        <v>2288</v>
+      </c>
+      <c r="AN46">
+        <v>2289</v>
+      </c>
+      <c r="AO46">
+        <v>2290</v>
+      </c>
+      <c r="AP46">
+        <v>2291</v>
+      </c>
+      <c r="AQ46">
+        <v>2292</v>
+      </c>
+      <c r="AR46">
+        <v>2293</v>
+      </c>
+      <c r="AS46">
+        <v>2294</v>
+      </c>
+      <c r="AT46">
+        <v>2295</v>
+      </c>
+      <c r="AU46">
+        <v>2296</v>
+      </c>
+      <c r="AV46">
+        <v>2297</v>
+      </c>
+      <c r="AW46">
+        <v>2298</v>
+      </c>
+      <c r="AX46">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2300</v>
+      </c>
+      <c r="B47">
+        <v>2301</v>
+      </c>
+      <c r="C47">
+        <v>2302</v>
+      </c>
+      <c r="D47">
+        <v>2303</v>
+      </c>
+      <c r="E47">
+        <v>2304</v>
+      </c>
+      <c r="F47">
+        <v>2305</v>
+      </c>
+      <c r="G47">
+        <v>2306</v>
+      </c>
+      <c r="H47">
+        <v>2307</v>
+      </c>
+      <c r="I47">
+        <v>2308</v>
+      </c>
+      <c r="J47">
+        <v>2309</v>
+      </c>
+      <c r="K47">
+        <v>2310</v>
+      </c>
+      <c r="L47">
+        <v>2311</v>
+      </c>
+      <c r="M47">
+        <v>2312</v>
+      </c>
+      <c r="N47">
+        <v>2313</v>
+      </c>
+      <c r="O47">
+        <v>2314</v>
+      </c>
+      <c r="P47">
+        <v>2315</v>
+      </c>
+      <c r="Q47">
+        <v>2316</v>
+      </c>
+      <c r="R47">
+        <v>2317</v>
+      </c>
+      <c r="S47">
+        <v>2318</v>
+      </c>
+      <c r="T47">
+        <v>2319</v>
+      </c>
+      <c r="U47">
+        <v>2320</v>
+      </c>
+      <c r="V47">
+        <v>2321</v>
+      </c>
+      <c r="W47">
+        <v>2322</v>
+      </c>
+      <c r="X47">
+        <v>2323</v>
+      </c>
+      <c r="Y47">
+        <v>2324</v>
+      </c>
+      <c r="Z47">
+        <v>2325</v>
+      </c>
+      <c r="AA47">
+        <v>2326</v>
+      </c>
+      <c r="AB47">
+        <v>2327</v>
+      </c>
+      <c r="AC47">
+        <v>2328</v>
+      </c>
+      <c r="AD47">
+        <v>2329</v>
+      </c>
+      <c r="AE47">
+        <v>2330</v>
+      </c>
+      <c r="AF47">
+        <v>2331</v>
+      </c>
+      <c r="AG47">
+        <v>2332</v>
+      </c>
+      <c r="AH47">
+        <v>2333</v>
+      </c>
+      <c r="AI47">
+        <v>2334</v>
+      </c>
+      <c r="AJ47">
+        <v>2335</v>
+      </c>
+      <c r="AK47">
+        <v>2336</v>
+      </c>
+      <c r="AL47">
+        <v>2337</v>
+      </c>
+      <c r="AM47">
+        <v>2338</v>
+      </c>
+      <c r="AN47">
+        <v>2339</v>
+      </c>
+      <c r="AO47">
+        <v>2340</v>
+      </c>
+      <c r="AP47">
+        <v>2341</v>
+      </c>
+      <c r="AQ47">
+        <v>2342</v>
+      </c>
+      <c r="AR47">
+        <v>2343</v>
+      </c>
+      <c r="AS47">
+        <v>2344</v>
+      </c>
+      <c r="AT47">
+        <v>2345</v>
+      </c>
+      <c r="AU47">
+        <v>2346</v>
+      </c>
+      <c r="AV47">
+        <v>2347</v>
+      </c>
+      <c r="AW47">
+        <v>2348</v>
+      </c>
+      <c r="AX47">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2350</v>
+      </c>
+      <c r="B48">
+        <v>2351</v>
+      </c>
+      <c r="C48">
+        <v>2352</v>
+      </c>
+      <c r="D48">
+        <v>2353</v>
+      </c>
+      <c r="E48">
+        <v>2354</v>
+      </c>
+      <c r="F48">
+        <v>2355</v>
+      </c>
+      <c r="G48">
+        <v>2356</v>
+      </c>
+      <c r="H48">
+        <v>2357</v>
+      </c>
+      <c r="I48">
+        <v>2358</v>
+      </c>
+      <c r="J48">
+        <v>2359</v>
+      </c>
+      <c r="K48">
+        <v>2360</v>
+      </c>
+      <c r="L48">
+        <v>2361</v>
+      </c>
+      <c r="M48">
+        <v>2362</v>
+      </c>
+      <c r="N48">
+        <v>2363</v>
+      </c>
+      <c r="O48">
+        <v>2364</v>
+      </c>
+      <c r="P48">
+        <v>2365</v>
+      </c>
+      <c r="Q48">
+        <v>2366</v>
+      </c>
+      <c r="R48">
+        <v>2367</v>
+      </c>
+      <c r="S48">
+        <v>2368</v>
+      </c>
+      <c r="T48">
+        <v>2369</v>
+      </c>
+      <c r="U48">
+        <v>2370</v>
+      </c>
+      <c r="V48">
+        <v>2371</v>
+      </c>
+      <c r="W48">
+        <v>2372</v>
+      </c>
+      <c r="X48">
+        <v>2373</v>
+      </c>
+      <c r="Y48">
+        <v>2374</v>
+      </c>
+      <c r="Z48">
+        <v>2375</v>
+      </c>
+      <c r="AA48">
+        <v>2376</v>
+      </c>
+      <c r="AB48">
+        <v>2377</v>
+      </c>
+      <c r="AC48">
+        <v>2378</v>
+      </c>
+      <c r="AD48">
+        <v>2379</v>
+      </c>
+      <c r="AE48">
+        <v>2380</v>
+      </c>
+      <c r="AF48">
+        <v>2381</v>
+      </c>
+      <c r="AG48">
+        <v>2382</v>
+      </c>
+      <c r="AH48">
+        <v>2383</v>
+      </c>
+      <c r="AI48">
+        <v>2384</v>
+      </c>
+      <c r="AJ48">
+        <v>2385</v>
+      </c>
+      <c r="AK48">
+        <v>2386</v>
+      </c>
+      <c r="AL48">
+        <v>2387</v>
+      </c>
+      <c r="AM48">
+        <v>2388</v>
+      </c>
+      <c r="AN48">
+        <v>2389</v>
+      </c>
+      <c r="AO48">
+        <v>2390</v>
+      </c>
+      <c r="AP48">
+        <v>2391</v>
+      </c>
+      <c r="AQ48">
+        <v>2392</v>
+      </c>
+      <c r="AR48">
+        <v>2393</v>
+      </c>
+      <c r="AS48">
+        <v>2394</v>
+      </c>
+      <c r="AT48">
+        <v>2395</v>
+      </c>
+      <c r="AU48">
+        <v>2396</v>
+      </c>
+      <c r="AV48">
+        <v>2397</v>
+      </c>
+      <c r="AW48">
+        <v>2398</v>
+      </c>
+      <c r="AX48">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2400</v>
+      </c>
+      <c r="B49">
+        <v>2401</v>
+      </c>
+      <c r="C49">
+        <v>2402</v>
+      </c>
+      <c r="D49">
+        <v>2403</v>
+      </c>
+      <c r="E49">
+        <v>2404</v>
+      </c>
+      <c r="F49">
+        <v>2405</v>
+      </c>
+      <c r="G49">
+        <v>2406</v>
+      </c>
+      <c r="H49">
+        <v>2407</v>
+      </c>
+      <c r="I49">
+        <v>2408</v>
+      </c>
+      <c r="J49">
+        <v>2409</v>
+      </c>
+      <c r="K49">
+        <v>2410</v>
+      </c>
+      <c r="L49">
+        <v>2411</v>
+      </c>
+      <c r="M49">
+        <v>2412</v>
+      </c>
+      <c r="N49">
+        <v>2413</v>
+      </c>
+      <c r="O49">
+        <v>2414</v>
+      </c>
+      <c r="P49">
+        <v>2415</v>
+      </c>
+      <c r="Q49">
+        <v>2416</v>
+      </c>
+      <c r="R49">
+        <v>2417</v>
+      </c>
+      <c r="S49">
+        <v>2418</v>
+      </c>
+      <c r="T49">
+        <v>2419</v>
+      </c>
+      <c r="U49">
+        <v>2420</v>
+      </c>
+      <c r="V49">
+        <v>2421</v>
+      </c>
+      <c r="W49">
+        <v>2422</v>
+      </c>
+      <c r="X49">
+        <v>2423</v>
+      </c>
+      <c r="Y49">
+        <v>2424</v>
+      </c>
+      <c r="Z49">
+        <v>2425</v>
+      </c>
+      <c r="AA49">
+        <v>2426</v>
+      </c>
+      <c r="AB49">
+        <v>2427</v>
+      </c>
+      <c r="AC49">
+        <v>2428</v>
+      </c>
+      <c r="AD49">
+        <v>2429</v>
+      </c>
+      <c r="AE49">
+        <v>2430</v>
+      </c>
+      <c r="AF49">
+        <v>2431</v>
+      </c>
+      <c r="AG49">
+        <v>2432</v>
+      </c>
+      <c r="AH49">
+        <v>2433</v>
+      </c>
+      <c r="AI49">
+        <v>2434</v>
+      </c>
+      <c r="AJ49">
+        <v>2435</v>
+      </c>
+      <c r="AK49">
+        <v>2436</v>
+      </c>
+      <c r="AL49">
+        <v>2437</v>
+      </c>
+      <c r="AM49">
+        <v>2438</v>
+      </c>
+      <c r="AN49">
+        <v>2439</v>
+      </c>
+      <c r="AO49">
+        <v>2440</v>
+      </c>
+      <c r="AP49">
+        <v>2441</v>
+      </c>
+      <c r="AQ49">
+        <v>2442</v>
+      </c>
+      <c r="AR49">
+        <v>2443</v>
+      </c>
+      <c r="AS49">
+        <v>2444</v>
+      </c>
+      <c r="AT49">
+        <v>2445</v>
+      </c>
+      <c r="AU49">
+        <v>2446</v>
+      </c>
+      <c r="AV49">
+        <v>2447</v>
+      </c>
+      <c r="AW49">
+        <v>2448</v>
+      </c>
+      <c r="AX49">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2450</v>
+      </c>
+      <c r="B50">
+        <v>2451</v>
+      </c>
+      <c r="C50">
+        <v>2452</v>
+      </c>
+      <c r="D50">
+        <v>2453</v>
+      </c>
+      <c r="E50">
+        <v>2454</v>
+      </c>
+      <c r="F50">
+        <v>2455</v>
+      </c>
+      <c r="G50">
+        <v>2456</v>
+      </c>
+      <c r="H50">
+        <v>2457</v>
+      </c>
+      <c r="I50">
+        <v>2458</v>
+      </c>
+      <c r="J50">
+        <v>2459</v>
+      </c>
+      <c r="K50">
+        <v>2460</v>
+      </c>
+      <c r="L50">
+        <v>2461</v>
+      </c>
+      <c r="M50">
+        <v>2462</v>
+      </c>
+      <c r="N50">
+        <v>2463</v>
+      </c>
+      <c r="O50">
+        <v>2464</v>
+      </c>
+      <c r="P50">
+        <v>2465</v>
+      </c>
+      <c r="Q50">
+        <v>2466</v>
+      </c>
+      <c r="R50">
+        <v>2467</v>
+      </c>
+      <c r="S50">
+        <v>2468</v>
+      </c>
+      <c r="T50">
+        <v>2469</v>
+      </c>
+      <c r="U50">
+        <v>2470</v>
+      </c>
+      <c r="V50">
+        <v>2471</v>
+      </c>
+      <c r="W50">
+        <v>2472</v>
+      </c>
+      <c r="X50">
+        <v>2473</v>
+      </c>
+      <c r="Y50">
+        <v>2474</v>
+      </c>
+      <c r="Z50">
+        <v>2475</v>
+      </c>
+      <c r="AA50">
+        <v>2476</v>
+      </c>
+      <c r="AB50">
+        <v>2477</v>
+      </c>
+      <c r="AC50">
+        <v>2478</v>
+      </c>
+      <c r="AD50">
+        <v>2479</v>
+      </c>
+      <c r="AE50">
+        <v>2480</v>
+      </c>
+      <c r="AF50">
+        <v>2481</v>
+      </c>
+      <c r="AG50">
+        <v>2482</v>
+      </c>
+      <c r="AH50">
+        <v>2483</v>
+      </c>
+      <c r="AI50">
+        <v>2484</v>
+      </c>
+      <c r="AJ50">
+        <v>2485</v>
+      </c>
+      <c r="AK50">
+        <v>2486</v>
+      </c>
+      <c r="AL50">
+        <v>2487</v>
+      </c>
+      <c r="AM50">
+        <v>2488</v>
+      </c>
+      <c r="AN50">
+        <v>2489</v>
+      </c>
+      <c r="AO50">
+        <v>2490</v>
+      </c>
+      <c r="AP50">
+        <v>2491</v>
+      </c>
+      <c r="AQ50">
+        <v>2492</v>
+      </c>
+      <c r="AR50">
+        <v>2493</v>
+      </c>
+      <c r="AS50">
+        <v>2494</v>
+      </c>
+      <c r="AT50">
+        <v>2495</v>
+      </c>
+      <c r="AU50">
+        <v>2496</v>
+      </c>
+      <c r="AV50">
+        <v>2497</v>
+      </c>
+      <c r="AW50">
+        <v>2498</v>
+      </c>
+      <c r="AX50">
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +10135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EF9FD-CEE5-43A9-8C38-97298138A99A}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2652,66 +10155,66 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2719,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -2745,7 +10248,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2772,36 +10275,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2862,36 +10365,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="b">
+      <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
